--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FBCB26-7AC0-4C3E-89A0-4CF72EE405B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A032FD9D-7299-4FE0-A15A-CFE9DB57FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="29580" yWindow="1185" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>proofreading</t>
+  </si>
+  <si>
+    <t>writing The precision effect, rewording What size to change</t>
   </si>
 </sst>
 </file>
@@ -294,11 +297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,79 +725,79 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -2005,15 +2008,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2158,7 +2161,7 @@
       </c>
       <c r="E7">
         <f>Sheet2!C6</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <f>SUM($D$3:D7)</f>
@@ -2166,7 +2169,7 @@
       </c>
       <c r="G7">
         <f>SUM($E$3:E7)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -2193,7 +2196,7 @@
       </c>
       <c r="G8">
         <f>SUM($E$3:E8)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -2220,7 +2223,7 @@
       </c>
       <c r="G9">
         <f>SUM($E$3:E9)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2244,7 +2247,7 @@
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -2271,7 +2274,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -2298,36 +2301,36 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>44823</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>38</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>15</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f>Sheet2!C12</f>
         <v>0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f>SUM($D$3:D13)</f>
         <v>180</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>SUM($E$3:E13)</f>
-        <v>95</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
@@ -2350,7 +2353,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -2377,7 +2380,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
         <v>35</v>
@@ -2404,7 +2407,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -2431,7 +2434,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
@@ -2458,7 +2461,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
@@ -2485,7 +2488,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -2512,7 +2515,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -2539,7 +2542,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2566,7 +2569,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2593,7 +2596,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
@@ -2620,7 +2623,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
@@ -2647,7 +2650,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2674,7 +2677,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2701,7 +2704,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2728,7 +2731,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2755,7 +2758,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
         <v>59</v>
@@ -2782,7 +2785,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -2806,7 +2809,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -2826,7 +2829,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2835,7 +2838,7 @@
       </c>
       <c r="B34" s="2">
         <f>$G$31-F7</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,8 +3078,8 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <f>4+4+4</f>
-        <v>12</v>
+        <f>4+4+4+2</f>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -3086,6 +3089,9 @@
       </c>
       <c r="F6" t="s">
         <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A032FD9D-7299-4FE0-A15A-CFE9DB57FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B926BCD0-6F3B-4AF9-B248-5DB19CD8E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="1185" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>writing The precision effect, rewording What size to change</t>
+  </si>
+  <si>
+    <t>almost finishing chapter 3, structuring chapter 4, adding labels, rereading some papers</t>
   </si>
 </sst>
 </file>
@@ -523,64 +526,64 @@
                   <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>165</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>180</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>306</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>346</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>379</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>419</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>452</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>492</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>525</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>565</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>598</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>638</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>671</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>691</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>691</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>691</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>691</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,79 +728,79 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2164,7 @@
       </c>
       <c r="E7">
         <f>Sheet2!C6</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <f>SUM($D$3:D7)</f>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="G7">
         <f>SUM($E$3:E7)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -2196,7 +2199,7 @@
       </c>
       <c r="G8">
         <f>SUM($E$3:E8)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -2223,7 +2226,7 @@
       </c>
       <c r="G9">
         <f>SUM($E$3:E9)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2247,7 +2250,7 @@
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -2274,7 +2277,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -2289,7 +2292,7 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <f>Sheet2!C11</f>
@@ -2297,11 +2300,11 @@
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -2324,11 +2327,11 @@
       </c>
       <c r="F13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G13" s="5">
         <f>SUM($E$3:E13)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -2349,11 +2352,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -2368,7 +2371,7 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <f>Sheet2!C14</f>
@@ -2380,7 +2383,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
         <v>35</v>
@@ -2395,7 +2398,7 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <f>Sheet2!C15</f>
@@ -2403,11 +2406,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -2422,7 +2425,7 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
@@ -2430,11 +2433,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
@@ -2449,7 +2452,7 @@
         <v>43</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
@@ -2457,11 +2460,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
@@ -2476,7 +2479,7 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
@@ -2484,11 +2487,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -2503,7 +2506,7 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
@@ -2511,11 +2514,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -2530,7 +2533,7 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <f>Sheet2!C20</f>
@@ -2538,11 +2541,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2557,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <f>Sheet2!C21</f>
@@ -2565,11 +2568,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2584,7 +2587,7 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
@@ -2592,11 +2595,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
@@ -2611,7 +2614,7 @@
         <v>49</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
@@ -2619,11 +2622,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
@@ -2638,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <f>Sheet2!C24</f>
@@ -2646,11 +2649,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2665,7 +2668,7 @@
         <v>51</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
@@ -2673,11 +2676,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2692,7 +2695,7 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <f>Sheet2!C26</f>
@@ -2700,11 +2703,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2727,11 +2730,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2754,11 +2757,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
         <v>59</v>
@@ -2781,11 +2784,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -2805,11 +2808,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -2825,11 +2828,11 @@
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2838,7 +2841,7 @@
       </c>
       <c r="B34" s="2">
         <f>$G$31-F7</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,8 +3081,8 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <f>4+4+4+2</f>
-        <v>14</v>
+        <f>4+4+4+2+4</f>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -3093,6 +3096,9 @@
       <c r="G6" t="s">
         <v>60</v>
       </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
       <c r="K6" t="s">
         <v>31</v>
       </c>
@@ -3153,6 +3159,18 @@
       <c r="B11">
         <v>37</v>
       </c>
+      <c r="H11" t="str">
+        <f>IF(E33, "korte reis", "")</f>
+        <v>korte reis</v>
+      </c>
+      <c r="I11" t="str">
+        <f>IF(E33, "korte reis", "")</f>
+        <v>korte reis</v>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(E33, "korte reis", "")</f>
+        <v>korte reis</v>
+      </c>
       <c r="K11" t="s">
         <v>31</v>
       </c>
@@ -3165,17 +3183,13 @@
       <c r="B12">
         <v>38</v>
       </c>
-      <c r="E12" t="str">
-        <f>IF(E33, "korte reis", "")</f>
-        <v>korte reis</v>
-      </c>
-      <c r="F12" t="str">
-        <f>IF(E33, "korte reis", "")</f>
-        <v>korte reis</v>
-      </c>
-      <c r="H12" t="str">
+      <c r="D12" t="str">
         <f>IF(E33, "kot verhuis", "")</f>
         <v>kot verhuis</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(E33, "onderwijsnamiddag", "")</f>
+        <v>onderwijsnamiddag</v>
       </c>
       <c r="K12" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B926BCD0-6F3B-4AF9-B248-5DB19CD8E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB55E90-D067-4B7A-84DE-3B304533B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>almost finishing chapter 3, structuring chapter 4, adding labels, rereading some papers</t>
+  </si>
+  <si>
+    <t>Kick-off masterproef</t>
+  </si>
+  <si>
+    <t>proofreading chap2, reading 27 AFL++: Combining Incremental Steps of Fuzzing Research</t>
   </si>
 </sst>
 </file>
@@ -728,79 +734,79 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,7 +2006,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2170,7 @@
       </c>
       <c r="E7">
         <f>Sheet2!C6</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <f>SUM($D$3:D7)</f>
@@ -2172,7 +2178,7 @@
       </c>
       <c r="G7">
         <f>SUM($E$3:E7)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -2199,7 +2205,7 @@
       </c>
       <c r="G8">
         <f>SUM($E$3:E8)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -2226,7 +2232,7 @@
       </c>
       <c r="G9">
         <f>SUM($E$3:E9)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2250,7 +2256,7 @@
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -2277,7 +2283,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -2304,7 +2310,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -2331,7 +2337,7 @@
       </c>
       <c r="G13" s="5">
         <f>SUM($E$3:E13)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -2356,7 +2362,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -2383,7 +2389,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
         <v>35</v>
@@ -2410,7 +2416,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -2437,7 +2443,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
@@ -2464,7 +2470,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
@@ -2491,7 +2497,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -2518,7 +2524,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -2545,7 +2551,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2572,7 +2578,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2599,7 +2605,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
@@ -2626,7 +2632,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
@@ -2653,7 +2659,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2680,7 +2686,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2707,7 +2713,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2734,7 +2740,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2761,7 +2767,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
         <v>59</v>
@@ -2788,7 +2794,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -2812,7 +2818,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -2832,7 +2838,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,7 +2847,7 @@
       </c>
       <c r="B34" s="2">
         <f>$G$31-F7</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3081,8 +3087,8 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <f>4+4+4+2+4</f>
-        <v>18</v>
+        <f>4+4+4+2+4+4</f>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -3099,6 +3105,9 @@
       <c r="H6" t="s">
         <v>61</v>
       </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
       <c r="K6" t="s">
         <v>31</v>
       </c>
@@ -3110,6 +3119,9 @@
       </c>
       <c r="B7">
         <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB55E90-D067-4B7A-84DE-3B304533B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04399094-C341-4F66-B4BC-2D9CD988B804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>proofreading chap2, reading 27 AFL++: Combining Incremental Steps of Fuzzing Research</t>
+  </si>
+  <si>
+    <t>proofreading ch 2 futher, proofreading ch 3, found new section for ch 2</t>
   </si>
 </sst>
 </file>
@@ -520,76 +523,76 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>145</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>160</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>175</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>195</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>233</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>271</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>309</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>347</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>385</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>423</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>461</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>499</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>537</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>575</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>613</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>651</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>689</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>709</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>709</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>709</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>709</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,79 +737,79 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,7 +2009,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2173,7 @@
       </c>
       <c r="E7">
         <f>Sheet2!C6</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <f>SUM($D$3:D7)</f>
@@ -2178,7 +2181,7 @@
       </c>
       <c r="G7">
         <f>SUM($E$3:E7)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -2193,7 +2196,7 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <f>Sheet2!C7</f>
@@ -2201,11 +2204,11 @@
       </c>
       <c r="F8">
         <f>SUM($D$3:D8)</f>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G8">
         <f>SUM($E$3:E8)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -2228,11 +2231,11 @@
       </c>
       <c r="F9">
         <f>SUM($D$3:D9)</f>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G9">
         <f>SUM($E$3:E9)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2252,11 +2255,11 @@
       </c>
       <c r="F10">
         <f>SUM($D$3:D10)</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -2279,11 +2282,11 @@
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -2306,11 +2309,11 @@
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -2333,11 +2336,11 @@
       </c>
       <c r="F13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G13" s="5">
         <f>SUM($E$3:E13)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -2358,11 +2361,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -2385,11 +2388,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
         <v>35</v>
@@ -2412,11 +2415,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -2439,11 +2442,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
@@ -2466,11 +2469,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
@@ -2493,11 +2496,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -2520,11 +2523,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -2547,11 +2550,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2574,11 +2577,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2601,11 +2604,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
@@ -2628,11 +2631,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
@@ -2655,11 +2658,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2682,11 +2685,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2709,11 +2712,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2736,11 +2739,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2763,11 +2766,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
         <v>59</v>
@@ -2790,11 +2793,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -2814,11 +2817,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -2834,11 +2837,11 @@
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2847,7 +2850,7 @@
       </c>
       <c r="B34" s="2">
         <f>$G$31-F7</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2876,7 +2879,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,8 +3090,8 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <f>4+4+4+2+4+4</f>
-        <v>22</v>
+        <f>4+4+4+2+4+4+4</f>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -3107,6 +3110,9 @@
       </c>
       <c r="I6" t="s">
         <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04399094-C341-4F66-B4BC-2D9CD988B804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0324591E-60DB-4E97-A27E-503334561AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>proofreading ch 2 futher, proofreading ch 3, found new section for ch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prep kickoff, trying AFL on CPMpy, debugging AFL, failing </t>
   </si>
 </sst>
 </file>
@@ -740,76 +743,76 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2200,7 +2203,7 @@
       </c>
       <c r="E8">
         <f>Sheet2!C7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f>SUM($D$3:D8)</f>
@@ -2208,7 +2211,7 @@
       </c>
       <c r="G8">
         <f>SUM($E$3:E8)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -2235,7 +2238,7 @@
       </c>
       <c r="G9">
         <f>SUM($E$3:E9)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2259,7 +2262,7 @@
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -2286,7 +2289,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -2313,7 +2316,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -2340,7 +2343,7 @@
       </c>
       <c r="G13" s="5">
         <f>SUM($E$3:E13)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -2365,7 +2368,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -2392,7 +2395,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
         <v>35</v>
@@ -2419,7 +2422,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -2446,7 +2449,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
@@ -2473,7 +2476,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
@@ -2500,7 +2503,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -2527,7 +2530,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -2554,7 +2557,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2581,7 +2584,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2608,7 +2611,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
@@ -2635,7 +2638,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
@@ -2662,7 +2665,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2689,7 +2692,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2716,7 +2719,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2743,7 +2746,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2770,7 +2773,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H29" t="s">
         <v>59</v>
@@ -2797,7 +2800,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -2821,7 +2824,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -2841,7 +2844,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,7 +2853,7 @@
       </c>
       <c r="B34" s="2">
         <f>$G$31-F7</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,6 +3129,13 @@
       <c r="B7">
         <v>33</v>
       </c>
+      <c r="C7">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
       <c r="E7" t="s">
         <v>62</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0324591E-60DB-4E97-A27E-503334561AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E439C6-385E-4210-A68A-503FBD306644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -245,9 +245,6 @@
     <t>almost finishing chapter 3, structuring chapter 4, adding labels, rereading some papers</t>
   </si>
   <si>
-    <t>Kick-off masterproef</t>
-  </si>
-  <si>
     <t>proofreading chap2, reading 27 AFL++: Combining Incremental Steps of Fuzzing Research</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t xml:space="preserve">prep kickoff, trying AFL on CPMpy, debugging AFL, failing </t>
+  </si>
+  <si>
+    <t>Kick-off masterproef, finding book</t>
   </si>
 </sst>
 </file>
@@ -743,76 +743,76 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,16 +886,10 @@
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
                       <c:pt idx="8">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="12">
@@ -2011,13 +2005,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2203,7 +2197,7 @@
       </c>
       <c r="E8">
         <f>Sheet2!C7</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <f>SUM($D$3:D8)</f>
@@ -2211,7 +2205,7 @@
       </c>
       <c r="G8">
         <f>SUM($E$3:E8)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -2238,7 +2232,7 @@
       </c>
       <c r="G9">
         <f>SUM($E$3:E9)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2262,10 +2256,7 @@
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>112</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -2289,10 +2280,10 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -2316,7 +2307,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -2343,7 +2334,7 @@
       </c>
       <c r="G13" s="5">
         <f>SUM($E$3:E13)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -2368,10 +2359,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>112</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2395,7 +2383,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
         <v>35</v>
@@ -2422,7 +2410,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -2449,7 +2437,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
@@ -2476,7 +2464,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
@@ -2503,7 +2491,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -2530,7 +2518,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -2557,7 +2545,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2584,7 +2572,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2611,7 +2599,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
@@ -2638,7 +2626,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
@@ -2665,7 +2653,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2692,7 +2680,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2719,7 +2707,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2746,7 +2734,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2773,7 +2761,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
         <v>59</v>
@@ -2800,7 +2788,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -2824,7 +2812,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -2844,7 +2832,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2853,7 +2841,7 @@
       </c>
       <c r="B34" s="2">
         <f>$G$31-F7</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2882,7 +2870,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,10 +3100,10 @@
         <v>61</v>
       </c>
       <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
         <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
@@ -3130,14 +3118,14 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <f>3</f>
-        <v>3</v>
+        <f>4+2</f>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E439C6-385E-4210-A68A-503FBD306644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F4A2E-BEB1-483C-B4B1-68CA01466A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -164,15 +164,6 @@
     <t>writing</t>
   </si>
   <si>
-    <t>coding fuzzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brainstorm with CPMpy </t>
-  </si>
-  <si>
-    <t>coding mimimizer</t>
-  </si>
-  <si>
     <t>comparision with other fuzzers</t>
   </si>
   <si>
@@ -255,6 +246,18 @@
   </si>
   <si>
     <t>Kick-off masterproef, finding book</t>
+  </si>
+  <si>
+    <t>kickoff</t>
+  </si>
+  <si>
+    <t>writing, proofreading</t>
+  </si>
+  <si>
+    <t>back-up</t>
+  </si>
+  <si>
+    <t>tbd</t>
   </si>
 </sst>
 </file>
@@ -892,6 +895,12 @@
                       <c:pt idx="9">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
                       <c:pt idx="12">
                         <c:v>0</c:v>
                       </c:pt>
@@ -935,6 +944,12 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2006,7 +2021,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2181,7 +2196,7 @@
         <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -2208,7 +2223,7 @@
         <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -2283,7 +2298,7 @@
         <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -2310,7 +2325,7 @@
         <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2336,7 +2351,9 @@
         <f>SUM($E$3:E13)</f>
         <v>115</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
@@ -2361,6 +2378,9 @@
         <f>SUM($E$3:E14)</f>
         <v>115</v>
       </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -2386,7 +2406,7 @@
         <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2413,7 +2433,7 @@
         <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -2440,7 +2460,7 @@
         <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -2467,7 +2487,7 @@
         <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -2494,7 +2514,7 @@
         <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -2521,7 +2541,7 @@
         <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -2548,7 +2568,7 @@
         <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -2575,7 +2595,7 @@
         <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -2602,7 +2622,7 @@
         <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -2629,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -2764,7 +2784,7 @@
         <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -2790,6 +2810,9 @@
         <f>SUM($E$3:E30)</f>
         <v>115</v>
       </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
@@ -2814,6 +2837,9 @@
         <f>SUM($E$3:E31)</f>
         <v>115</v>
       </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
@@ -2837,7 +2863,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <f>$G$31-F7</f>
@@ -2870,7 +2896,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,10 +3014,10 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>31</v>
@@ -3010,25 +3036,25 @@
         <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
@@ -3047,26 +3073,26 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
       </c>
       <c r="H5" t="str">
         <f>IF(E33, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -3085,25 +3111,25 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
         <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>63</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
@@ -3122,10 +3148,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F4A2E-BEB1-483C-B4B1-68CA01466A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA7E584-2B4B-4811-A935-8362F8103E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -259,12 +259,24 @@
   <si>
     <t>tbd</t>
   </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>Reading 40 SolverCheck: Declarative Testing of Constraints, Reading 41 Grammar-based Whitebox Fuzzing, finding fuzzing with SMT-papers, reading 42 Fuzzing SMT Solvers via Two-Dimensional, Reading 43 Validating SMT Solvers via Semantic Fusion</t>
+  </si>
+  <si>
+    <t>reread FuzzSMT paper 2, reread strom paper 1</t>
+  </si>
+  <si>
+    <t>examen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +289,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -320,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,70 +554,70 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>170</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>190</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>228</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>266</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>304</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>342</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>380</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>418</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>456</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>494</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>532</c:v>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>570</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>608</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>646</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>684</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>704</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>704</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>704</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>704</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,70 +771,70 @@
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>115</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,6 +906,12 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
@@ -2020,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2237,7 +2262,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <f>Sheet2!C8</f>
         <v>0</v>
       </c>
@@ -2249,6 +2274,9 @@
         <f>SUM($E$3:E9)</f>
         <v>115</v>
       </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -2259,19 +2287,22 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <f>Sheet2!C9</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <f>SUM($D$3:D10)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -2283,7 +2314,7 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <f>Sheet2!C10</f>
@@ -2291,11 +2322,11 @@
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2310,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <f>Sheet2!C11</f>
@@ -2318,11 +2349,11 @@
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -2337,7 +2368,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
         <f>Sheet2!C12</f>
@@ -2345,11 +2376,11 @@
       </c>
       <c r="F13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G13" s="5">
         <f>SUM($E$3:E13)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2372,11 +2403,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2399,11 +2430,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2426,11 +2457,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2453,11 +2484,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2480,11 +2511,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2507,11 +2538,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2534,11 +2565,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2561,11 +2592,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2588,11 +2619,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2615,11 +2646,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2642,11 +2673,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2669,11 +2700,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2696,11 +2727,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2723,11 +2754,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2750,11 +2781,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2777,11 +2808,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2804,11 +2835,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2831,11 +2862,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2854,11 +2885,11 @@
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,8 +2897,8 @@
         <v>43</v>
       </c>
       <c r="B34" s="2">
-        <f>$G$31-F7</f>
-        <v>25</v>
+        <f>$G$31-F10</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2895,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,7 +3175,7 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <f>4+2</f>
+        <f>4+2+0+0+0+0+0</f>
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -3153,6 +3184,26 @@
       <c r="E7" t="s">
         <v>62</v>
       </c>
+      <c r="F7" t="str">
+        <f t="shared" ref="E7:J9" si="1">IF($E$33, "Self adaptive Systems", "")</f>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
       <c r="K7" t="s">
         <v>31</v>
       </c>
@@ -3165,6 +3216,38 @@
       <c r="B8">
         <v>34</v>
       </c>
+      <c r="C8">
+        <f>0+0+0+0+0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF($E$33, "Self adaptive Systems", "")</f>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
       <c r="K8" t="s">
         <v>31</v>
       </c>
@@ -3176,6 +3259,27 @@
       </c>
       <c r="B9">
         <v>35</v>
+      </c>
+      <c r="C9">
+        <f>0+0+7</f>
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF($E$33, "Self adaptive Systems", "")</f>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Self adaptive Systems</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
       </c>
       <c r="K9" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA7E584-2B4B-4811-A935-8362F8103E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329504A-5A40-4714-9A1C-C876E53455FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -260,16 +261,22 @@
     <t>tbd</t>
   </si>
   <si>
-    <t>meeting</t>
-  </si>
-  <si>
     <t>Reading 40 SolverCheck: Declarative Testing of Constraints, Reading 41 Grammar-based Whitebox Fuzzing, finding fuzzing with SMT-papers, reading 42 Fuzzing SMT Solvers via Two-Dimensional, Reading 43 Validating SMT Solvers via Semantic Fusion</t>
   </si>
   <si>
-    <t>reread FuzzSMT paper 2, reread strom paper 1</t>
-  </si>
-  <si>
     <t>examen</t>
+  </si>
+  <si>
+    <t>SMT or CP</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>fuzzing</t>
+  </si>
+  <si>
+    <t>Rereading FuzzSMT Fuzzing and Delta-Debugging SMT Solver, Rereading strom Detecting Critical Bugs in SMT Solvers Using Blackbox Mutational Fuzzing, Reading 44 StringFuzz: A Fuzzer for String Solvers, Rereading 8 KLEE Unassisted and Automatic Generation of High-Coverage, Reading 45 fuzzball Path-Exploration Lifting Hi-Fi Tests for Lo-Fi Emulators, Reading 47 Finding and Understanding Bugs in Software Model Checkers, Reading 48 Differentially Testing Soundness and Precision of Program Analyzers</t>
   </si>
 </sst>
 </file>
@@ -335,10 +342,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,70 +778,70 @@
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>122</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2057,15 +2064,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2262,7 +2269,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f>Sheet2!C8</f>
         <v>0</v>
       </c>
@@ -2275,7 +2282,7 @@
         <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2291,7 +2298,7 @@
       </c>
       <c r="E10">
         <f>Sheet2!C9</f>
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="F10">
         <f>SUM($D$3:D10)</f>
@@ -2299,7 +2306,7 @@
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -2326,7 +2333,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2353,7 +2360,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -2380,7 +2387,7 @@
       </c>
       <c r="G13" s="5">
         <f>SUM($E$3:E13)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2407,7 +2414,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2434,7 +2441,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2461,7 +2468,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2488,7 +2495,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2515,7 +2522,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2542,7 +2549,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2569,7 +2576,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2596,7 +2603,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2623,7 +2630,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2650,7 +2657,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2677,7 +2684,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2704,7 +2711,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2731,7 +2738,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2758,7 +2765,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2785,7 +2792,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2812,7 +2819,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2839,7 +2846,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2866,7 +2873,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2889,7 +2896,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>122</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2898,7 +2905,7 @@
       </c>
       <c r="B34" s="2">
         <f>$G$31-F10</f>
-        <v>-3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3261,8 +3268,8 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <f>0+0+7</f>
-        <v>7</v>
+        <f>0+0+7+6.5</f>
+        <v>13.5</v>
       </c>
       <c r="D9" t="str">
         <f>IF($E$33, "Self adaptive Systems", "")</f>
@@ -3273,13 +3280,10 @@
         <v>Self adaptive Systems</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
         <v>31</v>
@@ -3602,4 +3606,213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157957EE-64C4-43CE-9071-0561D95D5CE4}">
+  <dimension ref="B2:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <f>COUNT(C3:C25)</f>
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <f>COUNT(D3:D25)</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D19">
+    <sortCondition ref="D3:D19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329504A-5A40-4714-9A1C-C876E53455FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CCFB84-2E38-438F-B7ED-41321E1EEA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>Rereading FuzzSMT Fuzzing and Delta-Debugging SMT Solver, Rereading strom Detecting Critical Bugs in SMT Solvers Using Blackbox Mutational Fuzzing, Reading 44 StringFuzz: A Fuzzer for String Solvers, Rereading 8 KLEE Unassisted and Automatic Generation of High-Coverage, Reading 45 fuzzball Path-Exploration Lifting Hi-Fi Tests for Lo-Fi Emulators, Reading 47 Finding and Understanding Bugs in Software Model Checkers, Reading 48 Differentially Testing Soundness and Precision of Program Analyzers</t>
+  </si>
+  <si>
+    <t>Reading on minimal unsatisfiable subset, Reading 49 TestMC Testing Model Counters using Differential and Metamorphic Testing, Reading 50 Metamorphic testing of constraint solvers, adding parts to further write on</t>
+  </si>
+  <si>
+    <t>papers about</t>
+  </si>
+  <si>
+    <t>thesis meeting, perperation work</t>
   </si>
 </sst>
 </file>
@@ -333,10 +342,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -561,70 +569,70 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>190</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>210</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>248</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>286</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>324</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>362</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>438</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>476</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>514</c:v>
+                  <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>552</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>590</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>628</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>666</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>704</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>724</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>724</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>724</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>724</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,70 +786,70 @@
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>128.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,15 +2072,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2269,7 +2277,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>Sheet2!C8</f>
         <v>0</v>
       </c>
@@ -2294,19 +2302,19 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <f>Sheet2!C9</f>
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <f>SUM($D$3:D10)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -2321,7 +2329,7 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <f>Sheet2!C10</f>
@@ -2329,11 +2337,11 @@
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2356,38 +2364,38 @@
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>44823</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>38</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>20</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f>Sheet2!C12</f>
         <v>0</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
-        <v>190</v>
-      </c>
-      <c r="G13" s="5">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2410,11 +2418,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2437,11 +2445,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2464,11 +2472,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2491,11 +2499,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2518,11 +2526,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2545,11 +2553,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2572,11 +2580,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2599,11 +2607,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2626,11 +2634,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2653,11 +2661,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2680,11 +2688,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2707,11 +2715,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2734,11 +2742,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2761,11 +2769,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2788,11 +2796,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2815,11 +2823,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2842,11 +2850,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2869,11 +2877,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2886,26 +2894,22 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2">
-        <f>COUNT(B3:B31)</f>
-        <v>29</v>
-      </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>128.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <f>$G$31-F10</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2933,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,7 +2952,7 @@
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3073,7 +3077,7 @@
         <f>4+2+4+4+4+4+4</f>
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E4" t="s">
@@ -3268,8 +3272,8 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <f>0+0+7+6.5</f>
-        <v>13.5</v>
+        <f>0+0+7+7+2+4</f>
+        <v>20</v>
       </c>
       <c r="D9" t="str">
         <f>IF($E$33, "Self adaptive Systems", "")</f>
@@ -3285,6 +3289,12 @@
       <c r="G9" t="s">
         <v>72</v>
       </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
       <c r="K9" t="s">
         <v>31</v>
       </c>
@@ -3585,16 +3595,12 @@
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
       <c r="D33" t="s">
         <v>30</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -3613,16 +3619,20 @@
   <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
       <c r="C2" t="s">
         <v>71</v>
       </c>
@@ -3630,7 +3640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>3</v>
       </c>
@@ -3638,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>4</v>
       </c>
@@ -3646,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>7</v>
       </c>
@@ -3654,7 +3664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>8</v>
       </c>
@@ -3662,7 +3672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>10</v>
       </c>
@@ -3670,7 +3680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>12</v>
       </c>
@@ -3678,7 +3688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>14</v>
       </c>
@@ -3686,7 +3696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>16</v>
       </c>
@@ -3694,7 +3704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>21</v>
       </c>
@@ -3702,7 +3712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>22</v>
       </c>
@@ -3710,7 +3720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>23</v>
       </c>
@@ -3718,7 +3728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>24</v>
       </c>
@@ -3726,7 +3736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>25</v>
       </c>
@@ -3734,7 +3744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>26</v>
       </c>
@@ -3770,11 +3780,17 @@
       <c r="C20">
         <v>32</v>
       </c>
+      <c r="D20">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>34</v>
       </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22">
@@ -3796,17 +3812,27 @@
         <v>46</v>
       </c>
     </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>50</v>
+      </c>
+    </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>70</v>
       </c>
       <c r="C30">
-        <f>COUNT(C3:C25)</f>
-        <v>23</v>
+        <f>COUNT(C3:C27)</f>
+        <v>25</v>
       </c>
       <c r="D30">
         <f>COUNT(D3:D25)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CCFB84-2E38-438F-B7ED-41321E1EEA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCC8DC-4C51-4DBC-8A33-5D7F84C7C6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>thesis meeting, perperation work</t>
+  </si>
+  <si>
+    <t>Writing SMT fuzzers, expanding previous parts</t>
   </si>
 </sst>
 </file>
@@ -786,70 +789,70 @@
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2061,7 +2064,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2309,7 @@
       </c>
       <c r="E10">
         <f>Sheet2!C9</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <f>SUM($D$3:D10)</f>
@@ -2314,7 +2317,7 @@
       </c>
       <c r="G10">
         <f>SUM($E$3:E10)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -2341,7 +2344,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2368,7 +2371,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -2395,7 +2398,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2422,7 +2425,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2449,7 +2452,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2476,7 +2479,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2503,7 +2506,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2530,7 +2533,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2557,7 +2560,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2584,7 +2587,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2611,7 +2614,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2638,7 +2641,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2665,7 +2668,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2692,7 +2695,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2719,7 +2722,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2746,7 +2749,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2773,7 +2776,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2800,7 +2803,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2827,7 +2830,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2854,7 +2857,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2881,7 +2884,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2900,7 +2903,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2909,7 +2912,7 @@
       </c>
       <c r="B34">
         <f>$G$31-F10</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,7 +2941,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,8 +3275,8 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <f>0+0+7+7+2+4</f>
-        <v>20</v>
+        <f>0+0+7+7+2+4+5</f>
+        <v>25</v>
       </c>
       <c r="D9" t="str">
         <f>IF($E$33, "Self adaptive Systems", "")</f>
@@ -3294,6 +3297,9 @@
       </c>
       <c r="I9" t="s">
         <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
       </c>
       <c r="K9" t="s">
         <v>31</v>
@@ -3619,7 +3625,7 @@
   <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C27" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3812,23 +3818,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>50</v>
-      </c>
-    </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>70</v>
       </c>
       <c r="C30">
         <f>COUNT(C3:C27)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <f>COUNT(D3:D25)</f>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCC8DC-4C51-4DBC-8A33-5D7F84C7C6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2820EA-66D3-46F2-883E-413FD4F3F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Writing SMT fuzzers, expanding previous parts</t>
+  </si>
+  <si>
+    <t>Writing on SMT, CP fuzzers like Falcon, Writing on Metamorphic testing, Finishing of multople To Do's</t>
   </si>
 </sst>
 </file>
@@ -792,67 +795,67 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>140</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,7 +2339,7 @@
       </c>
       <c r="E11">
         <f>Sheet2!C10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
@@ -2344,7 +2347,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2371,7 +2374,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -2398,7 +2401,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2425,7 +2428,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2452,7 +2455,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2479,7 +2482,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2506,7 +2509,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2533,7 +2536,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2560,7 +2563,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2587,7 +2590,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2614,7 +2617,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2641,7 +2644,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2668,7 +2671,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2695,7 +2698,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2722,7 +2725,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2749,7 +2752,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2776,7 +2779,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2803,7 +2806,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2830,7 +2833,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2857,7 +2860,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2884,7 +2887,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2903,7 +2906,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2912,7 +2915,7 @@
       </c>
       <c r="B34">
         <f>$G$31-F10</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,7 +2944,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,6 +3315,13 @@
       </c>
       <c r="B10">
         <v>36</v>
+      </c>
+      <c r="C10">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2820EA-66D3-46F2-883E-413FD4F3F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4421A5-B81A-4343-94B6-27074C5875A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Writing on SMT, CP fuzzers like Falcon, Writing on Metamorphic testing, Finishing of multople To Do's</t>
+  </si>
+  <si>
+    <t>Writing connection between MUS/MSS Simplification/Isolation, Reading 51 Algorithms for Computing Minimal Unsatisfiable Subsets of Constraints</t>
   </si>
 </sst>
 </file>
@@ -795,67 +798,67 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>146</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,7 +2070,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2342,7 @@
       </c>
       <c r="E11">
         <f>Sheet2!C10</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
@@ -2347,7 +2350,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2374,7 +2377,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -2401,7 +2404,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2428,7 +2431,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2455,7 +2458,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2482,7 +2485,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2509,7 +2512,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2536,7 +2539,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2563,7 +2566,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2590,7 +2593,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2617,7 +2620,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2644,7 +2647,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2671,7 +2674,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2698,7 +2701,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2725,7 +2728,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2752,7 +2755,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2779,7 +2782,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2806,7 +2809,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2833,7 +2836,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2860,7 +2863,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2887,7 +2890,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2906,7 +2909,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2914,8 +2917,8 @@
         <v>43</v>
       </c>
       <c r="B34">
-        <f>$G$31-F10</f>
-        <v>16</v>
+        <f>$G$31-F11</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2944,7 +2947,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,8 +2956,8 @@
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
@@ -3317,11 +3320,18 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <f>6</f>
-        <v>6</v>
+        <f>6+0+5</f>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(E33, "Hobby Stura", "")</f>
+        <v>Hobby Stura</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4421A5-B81A-4343-94B6-27074C5875A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3515A7-A9D9-4F11-983A-0123DEE15E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Writing connection between MUS/MSS Simplification/Isolation, Reading 51 Algorithms for Computing Minimal Unsatisfiable Subsets of Constraints</t>
+  </si>
+  <si>
+    <t>thesis meeting</t>
+  </si>
+  <si>
+    <t>Writing about deobfuscation algoritmes struglling with LaTeX, Reading 52 Constraint Programming In Pursuit of the Holy Grail</t>
   </si>
 </sst>
 </file>
@@ -596,52 +602,52 @@
                   <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>296</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>334</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>372</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>410</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>448</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>486</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>524</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>562</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>600</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>638</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>676</c:v>
+                  <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>714</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>734</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>734</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>734</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>734</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,67 +804,67 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>151</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2348,7 @@
       </c>
       <c r="E11">
         <f>Sheet2!C10</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
@@ -2350,7 +2356,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2377,7 +2383,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -2404,7 +2410,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2431,7 +2437,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2458,7 +2464,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2473,7 +2479,7 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <f>Sheet2!C15</f>
@@ -2481,11 +2487,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2508,11 +2514,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2535,11 +2541,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2562,11 +2568,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2589,11 +2595,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2616,11 +2622,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2643,11 +2649,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2670,11 +2676,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2697,11 +2703,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2724,11 +2730,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2751,11 +2757,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2778,11 +2784,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2805,11 +2811,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2832,11 +2838,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2859,11 +2865,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2886,11 +2892,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2905,11 +2911,11 @@
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,7 +2924,7 @@
       </c>
       <c r="B34">
         <f>$G$31-F11</f>
-        <v>-9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,7 +2952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3320,8 +3326,8 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <f>6+0+5</f>
-        <v>11</v>
+        <f>6+0+5+6</f>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -3333,6 +3339,12 @@
       <c r="F10" t="s">
         <v>78</v>
       </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
       <c r="K10" t="s">
         <v>31</v>
       </c>
@@ -3412,6 +3424,22 @@
       </c>
       <c r="B15">
         <v>41</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF($E$33, "Wijsheidstanden", "")</f>
+        <v>Wijsheidstanden</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ref="H15:J15" si="2">IF($E$33, "Wijsheidstanden", "")</f>
+        <v>Wijsheidstanden</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>Wijsheidstanden</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>Wijsheidstanden</v>
       </c>
       <c r="K15" t="s">
         <v>31</v>
@@ -3645,7 +3673,7 @@
   <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C26:C27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,6 +3850,9 @@
       <c r="C22">
         <v>39</v>
       </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -3848,7 +3879,7 @@
       </c>
       <c r="D30">
         <f>COUNT(D3:D25)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3515A7-A9D9-4F11-983A-0123DEE15E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224F8030-B800-4F0C-87C3-0CB114073498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -2953,7 +2953,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,20 +3426,20 @@
         <v>41</v>
       </c>
       <c r="G15" t="str">
-        <f>IF($E$33, "Wijsheidstanden", "")</f>
-        <v>Wijsheidstanden</v>
+        <f>IF($E$33, "Operatie", "")</f>
+        <v>Operatie</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ref="H15:J15" si="2">IF($E$33, "Wijsheidstanden", "")</f>
-        <v>Wijsheidstanden</v>
+        <f>IF($E$33, "Revalidatie", "")</f>
+        <v>Revalidatie</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>Wijsheidstanden</v>
+        <f t="shared" ref="I15:J15" si="2">IF($E$33, "Revalidatie", "")</f>
+        <v>Revalidatie</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="2"/>
-        <v>Wijsheidstanden</v>
+        <v>Revalidatie</v>
       </c>
       <c r="K15" t="s">
         <v>31</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224F8030-B800-4F0C-87C3-0CB114073498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E99E0C7-A588-46DF-BCD2-DEF499A09901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,10 +297,10 @@
     <t>Writing connection between MUS/MSS Simplification/Isolation, Reading 51 Algorithms for Computing Minimal Unsatisfiable Subsets of Constraints</t>
   </si>
   <si>
-    <t>thesis meeting</t>
-  </si>
-  <si>
     <t>Writing about deobfuscation algoritmes struglling with LaTeX, Reading 52 Constraint Programming In Pursuit of the Holy Grail</t>
+  </si>
+  <si>
+    <t>thesis meeting, Reading 53 some chapters of Programming with Constraints An Introduction, Reading 54 Z3 978-3-540-78800-3_24, Reading 56 Bringing CP, SAT and SMT together Next Challenges in Constraint Solving dagrep_v009_i002_p027_19062.pdf, Reading 57 MiniZinc Towards a Standard CP Modelling Language 978-3-540-74970-7-543-557.pdf, more explanation on an example, Reading 58 The Minizinc challenge 2008-2013 2539-Article Text-4467-1-10-20140610.pdf</t>
   </si>
 </sst>
 </file>
@@ -804,67 +804,67 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,7 +2076,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="E11">
         <f>Sheet2!C10</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B34">
         <f>$G$31-F11</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,8 +3326,8 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <f>6+0+5+6</f>
-        <v>17</v>
+        <f>6+0+5+6+7</f>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -3340,10 +3340,10 @@
         <v>78</v>
       </c>
       <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
         <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>
@@ -3670,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157957EE-64C4-43CE-9071-0561D95D5CE4}">
-  <dimension ref="B2:D30"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,7 +3806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>27</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>29</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>31</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>32</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>34</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>39</v>
       </c>
@@ -3854,32 +3854,56 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C30">
-        <f>COUNT(C3:C27)</f>
+      <c r="C39">
+        <f>COUNT(C3:C37)</f>
         <v>23</v>
       </c>
-      <c r="D30">
-        <f>COUNT(D3:D25)</f>
-        <v>20</v>
+      <c r="D39">
+        <f>COUNT(D3:D37)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E99E0C7-A588-46DF-BCD2-DEF499A09901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498F762B-6519-46D2-A981-79E1769DD807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>thesis meeting, Reading 53 some chapters of Programming with Constraints An Introduction, Reading 54 Z3 978-3-540-78800-3_24, Reading 56 Bringing CP, SAT and SMT together Next Challenges in Constraint Solving dagrep_v009_i002_p027_19062.pdf, Reading 57 MiniZinc Towards a Standard CP Modelling Language 978-3-540-74970-7-543-557.pdf, more explanation on an example, Reading 58 The Minizinc challenge 2008-2013 2539-Article Text-4467-1-10-20140610.pdf</t>
+  </si>
+  <si>
+    <t>Reading partial On Induction for SMT Solvers main-tech-report, Reading 59 Philosophy of the MINIZINC challenge s10601-010-9093-020160730-1147-1vmoz0t-with-cover-page-v2, Reading 60 Empirical Study of the Anatomy of Modern SAT Solvers, Rereading parts of Modelling of Complex Systems - Courese Text, finding papers</t>
+  </si>
+  <si>
+    <t>Read wiki's!</t>
   </si>
 </sst>
 </file>
@@ -587,67 +593,67 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>180</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>220</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>258</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>278</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>316</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>354</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>392</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>430</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>468</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>506</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>544</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>582</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>620</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>658</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>696</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>716</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>716</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>716</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>716</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,67 +810,67 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>164</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,7 +2082,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,19 +2350,19 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <f>Sheet2!C10</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2379,11 +2385,11 @@
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -2406,11 +2412,11 @@
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2433,11 +2439,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2460,11 +2466,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2487,11 +2493,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2514,11 +2520,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2541,11 +2547,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2568,11 +2574,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2595,11 +2601,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2622,11 +2628,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2649,11 +2655,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2676,11 +2682,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2703,11 +2709,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2730,11 +2736,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2757,11 +2763,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2784,11 +2790,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2811,11 +2817,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2838,11 +2844,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2865,11 +2871,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2892,11 +2898,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2911,11 +2917,11 @@
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,7 +2930,7 @@
       </c>
       <c r="B34">
         <f>$G$31-F11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3326,8 +3332,8 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <f>6+0+5+6+7</f>
-        <v>24</v>
+        <f>6+0+5+6+7+6</f>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -3344,6 +3350,12 @@
       </c>
       <c r="H10" t="s">
         <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>
@@ -3672,7 +3684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157957EE-64C4-43CE-9071-0561D95D5CE4}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498F762B-6519-46D2-A981-79E1769DD807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AA9129-6126-4FBD-8048-AB928AC2F3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     <t>Reading partial On Induction for SMT Solvers main-tech-report, Reading 59 Philosophy of the MINIZINC challenge s10601-010-9093-020160730-1147-1vmoz0t-with-cover-page-v2, Reading 60 Empirical Study of the Anatomy of Modern SAT Solvers, Rereading parts of Modelling of Complex Systems - Courese Text, finding papers</t>
   </si>
   <si>
-    <t>Read wiki's!</t>
+    <t>Reading to find gaps in knowledge Wiki's: Constraint_logic_programming, Constraint_programming, Constraint_satisfaction_problem, DPLL(T), Operations_research, Quantifier_(logic), Satisfiability_modulo_theories, Z3_Theorem_Prover</t>
   </si>
 </sst>
 </file>
@@ -593,67 +593,67 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>185</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>205</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>225</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>263</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>321</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>359</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>397</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>435</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>473</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>511</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>549</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>587</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>625</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>663</c:v>
+                  <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>701</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>721</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>721</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>721</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>721</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,67 +810,67 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>170</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,19 +2350,19 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <f>Sheet2!C10</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <f>SUM($D$3:D11)</f>
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G11">
         <f>SUM($E$3:E11)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2385,14 +2385,14 @@
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2412,11 +2412,11 @@
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -2439,11 +2439,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -2466,11 +2466,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2493,11 +2493,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -2520,11 +2520,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -2547,11 +2547,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -2574,11 +2574,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -2601,11 +2601,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -2628,11 +2628,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2655,11 +2655,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2682,11 +2682,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2709,11 +2709,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -2736,11 +2736,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -2790,11 +2790,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2817,11 +2817,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -2844,11 +2844,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2871,11 +2871,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
@@ -2898,11 +2898,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -2917,11 +2917,11 @@
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2929,8 +2929,8 @@
         <v>43</v>
       </c>
       <c r="B34">
-        <f>$G$31-F11</f>
-        <v>5</v>
+        <f>$G$31-F12</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3332,8 +3332,8 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <f>6+0+5+6+7+6</f>
-        <v>30</v>
+        <f>6+0+5+6+7+6+4</f>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AA9129-6126-4FBD-8048-AB928AC2F3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3D31C-AB44-4EA2-B58A-DEB672FFF471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -87,12 +87,6 @@
     <t>reading paper "Fuzzing and delta-debugging SMT solvers.", reading documantations on fuzzer afl(++), finding some books on limo</t>
   </si>
   <si>
-    <t>todo when bored</t>
-  </si>
-  <si>
-    <t>CPMpy, running AFL++ on it to find crashes (&lt;&gt; critical)</t>
-  </si>
-  <si>
     <t>paper 2,3, chapter 5 Simplifying Problems 2009 Why Programs Fail</t>
   </si>
   <si>
@@ -123,18 +117,9 @@
     <t>date</t>
   </si>
   <si>
-    <t>extra:</t>
-  </si>
-  <si>
     <t>chapter 13 Simplifying Problems 2009 Why Programs Fail, reading 5 delta-debugging Simplifying and Isolating Failure-Inducing Input till p9, trying to understand the algoritms</t>
   </si>
   <si>
-    <t>automaticly finding cause of error p298 of why programms fail, could result in patchwork</t>
-  </si>
-  <si>
-    <t>papers rond fuzzing, whitebox, blackbox, lexical, syntactical</t>
-  </si>
-  <si>
     <t>cont 5 reading Simplifying and Isolating Failure-Inducing Input, reading for fuzzing 6 Language Fuzzing Using Constraint Logic Programming, 7 Parser-Directed Fuzzing</t>
   </si>
   <si>
@@ -307,6 +292,9 @@
   </si>
   <si>
     <t>Reading to find gaps in knowledge Wiki's: Constraint_logic_programming, Constraint_programming, Constraint_satisfaction_problem, DPLL(T), Operations_research, Quantifier_(logic), Satisfiability_modulo_theories, Z3_Theorem_Prover</t>
+  </si>
+  <si>
+    <t>Writing start of CP chapter, Writing explaining "send + more = money" example, fighting LaTeX while using a listing style for Minizinc, some quality of life improvements in LaTeX</t>
   </si>
 </sst>
 </file>
@@ -813,64 +801,64 @@
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>174</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2105,7 +2093,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2123,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2149,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -2176,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2203,7 +2191,7 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -2230,7 +2218,7 @@
         <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -2257,7 +2245,7 @@
         <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -2284,7 +2272,7 @@
         <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -2311,7 +2299,7 @@
         <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2338,7 +2326,7 @@
         <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -2365,7 +2353,7 @@
         <v>174</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -2381,7 +2369,7 @@
       </c>
       <c r="E12">
         <f>Sheet2!C11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
@@ -2389,10 +2377,10 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2416,10 +2404,10 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -2443,10 +2431,10 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2470,10 +2458,10 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2497,10 +2485,10 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -2524,10 +2512,10 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -2551,10 +2539,10 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -2578,10 +2566,10 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -2605,10 +2593,10 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -2632,10 +2620,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -2659,10 +2647,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -2686,10 +2674,10 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -2713,10 +2701,10 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -2740,10 +2728,10 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -2767,10 +2755,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -2794,10 +2782,10 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -2821,10 +2809,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -2848,10 +2836,10 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -2875,10 +2863,10 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -2902,10 +2890,10 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -2913,7 +2901,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
@@ -2921,16 +2909,16 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <f>$G$31-F12</f>
-        <v>-6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,7 +2946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2978,37 +2966,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3032,19 +3020,19 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3068,22 +3056,22 @@
         <v>38°C</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,28 +3087,28 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3136,29 +3124,29 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H5" t="str">
         <f>IF(E33, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3174,28 +3162,28 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3211,10 +3199,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="E7:J9" si="1">IF($E$33, "Self adaptive Systems", "")</f>
@@ -3237,7 +3225,7 @@
         <v>Self adaptive Systems</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3281,7 +3269,7 @@
         <v>Self adaptive Systems</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3305,22 +3293,22 @@
         <v>Self adaptive Systems</v>
       </c>
       <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3336,29 +3324,29 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E10" t="str">
         <f>IF(E33, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3368,6 +3356,13 @@
       </c>
       <c r="B11">
         <v>37</v>
+      </c>
+      <c r="C11">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
       </c>
       <c r="H11" t="str">
         <f>IF(E33, "korte reis", "")</f>
@@ -3382,7 +3377,7 @@
         <v>korte reis</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3402,7 +3397,7 @@
         <v>onderwijsnamiddag</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3414,7 +3409,7 @@
         <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3426,7 +3421,7 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3454,7 +3449,7 @@
         <v>Revalidatie</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3466,7 +3461,7 @@
         <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3478,7 +3473,7 @@
         <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3490,7 +3485,7 @@
         <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3502,7 +3497,7 @@
         <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3514,7 +3509,7 @@
         <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3526,7 +3521,7 @@
         <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3538,7 +3533,7 @@
         <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3550,7 +3545,7 @@
         <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3562,7 +3557,7 @@
         <v>50</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3574,7 +3569,7 @@
         <v>51</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3586,7 +3581,7 @@
         <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3597,14 +3592,8 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3615,14 +3604,8 @@
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3634,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3645,16 +3628,13 @@
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3662,7 +3642,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -3697,13 +3677,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -3907,7 +3887,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <f>COUNT(C3:C37)</f>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3D31C-AB44-4EA2-B58A-DEB672FFF471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD4D40C-2280-400C-A336-B2C935C09DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Writing start of CP chapter, Writing explaining "send + more = money" example, fighting LaTeX while using a listing style for Minizinc, some quality of life improvements in LaTeX</t>
+  </si>
+  <si>
+    <t>Writing around CP sat and optimalisations,Writing around minizinc and its challenges,  Reading 65 Constraint Logic Programming, Reading 67 Lazy Clause Generation Combining the power of SAT and CP (and MIP) solving, Reading 68 The Modelling Language Zinc 10.1.1.111.5598, Reading 69 Compiling Finite Domain Constraints to SAT with BEE 1206.3883</t>
   </si>
 </sst>
 </file>
@@ -584,64 +587,64 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>180</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>220</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>258</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>278</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>316</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>354</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>392</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>430</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>468</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>506</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>544</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>582</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>620</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>658</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>696</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>716</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>716</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>716</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>716</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,64 +804,64 @@
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>182</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,19 +2368,19 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <f>Sheet2!C11</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -2400,11 +2403,11 @@
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
         <v>61</v>
@@ -2427,11 +2430,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2454,11 +2457,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2481,11 +2484,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2508,11 +2511,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2535,11 +2538,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2562,11 +2565,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2589,11 +2592,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2616,11 +2619,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2643,11 +2646,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2670,11 +2673,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2697,11 +2700,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2724,11 +2727,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2751,11 +2754,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2778,11 +2781,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2805,11 +2808,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2832,11 +2835,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2859,11 +2862,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2886,11 +2889,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
@@ -2905,11 +2908,11 @@
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,7 +2921,7 @@
       </c>
       <c r="B34">
         <f>$G$31-F12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,11 +3361,14 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <f>8</f>
-        <v>8</v>
+        <f>8+7</f>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
       </c>
       <c r="H11" t="str">
         <f>IF(E33, "korte reis", "")</f>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD4D40C-2280-400C-A336-B2C935C09DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C01CE2-6ADA-45F3-A568-3D4B2F33E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Writing around CP sat and optimalisations,Writing around minizinc and its challenges,  Reading 65 Constraint Logic Programming, Reading 67 Lazy Clause Generation Combining the power of SAT and CP (and MIP) solving, Reading 68 The Modelling Language Zinc 10.1.1.111.5598, Reading 69 Compiling Finite Domain Constraints to SAT with BEE 1206.3883</t>
+  </si>
+  <si>
+    <t>Writing about MiniZinc Challenge and CPMpy, Reading 70 Essence A Constraint Language for Specifying Combinatorial Problems essence</t>
   </si>
 </sst>
 </file>
@@ -804,64 +807,64 @@
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2372,7 +2375,7 @@
       </c>
       <c r="E12">
         <f>Sheet2!C11</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
@@ -2380,7 +2383,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -2407,7 +2410,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H13" t="s">
         <v>61</v>
@@ -2434,7 +2437,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2461,7 +2464,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2488,7 +2491,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2515,7 +2518,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2542,7 +2545,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2569,7 +2572,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2596,7 +2599,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2623,7 +2626,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2650,7 +2653,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2677,7 +2680,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2704,7 +2707,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2731,7 +2734,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2758,7 +2761,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2785,7 +2788,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2812,7 +2815,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2839,7 +2842,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2866,7 +2869,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2893,7 +2896,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
@@ -2912,7 +2915,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2921,7 +2924,7 @@
       </c>
       <c r="B34">
         <f>$G$31-F12</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,14 +3364,17 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <f>8+7</f>
-        <v>15</v>
+        <f>8+7+5</f>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
       </c>
       <c r="H11" t="str">
         <f>IF(E33, "korte reis", "")</f>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C01CE2-6ADA-45F3-A568-3D4B2F33E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F1EBF-74EA-438A-A74E-DC6E9AC79E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Writing about MiniZinc Challenge and CPMpy, Reading 70 Essence A Constraint Language for Specifying Combinatorial Problems essence</t>
+  </si>
+  <si>
+    <t>Writing about SAT, SMT, Reading 71 CVC3, Reading 72 A System for Solving Constraint Satisfaction Problems with SMT bofill-sat10.pdf</t>
   </si>
 </sst>
 </file>
@@ -807,64 +810,64 @@
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>194</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2375,7 +2378,7 @@
       </c>
       <c r="E12">
         <f>Sheet2!C11</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <f>SUM($D$3:D12)</f>
@@ -2383,7 +2386,7 @@
       </c>
       <c r="G12">
         <f>SUM($E$3:E12)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -2410,7 +2413,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H13" t="s">
         <v>61</v>
@@ -2437,7 +2440,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2464,7 +2467,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2491,7 +2494,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2518,7 +2521,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2545,7 +2548,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2572,7 +2575,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2599,7 +2602,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2626,7 +2629,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2653,7 +2656,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2680,7 +2683,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2707,7 +2710,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2734,7 +2737,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2788,7 +2791,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2815,7 +2818,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2842,7 +2845,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2869,7 +2872,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2896,7 +2899,7 @@
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
@@ -2915,7 +2918,7 @@
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,7 +2927,7 @@
       </c>
       <c r="B34">
         <f>$G$31-F12</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,8 +3367,8 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <f>8+7+5</f>
-        <v>20</v>
+        <f>8+7+5+6</f>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>78</v>
@@ -3375,6 +3378,9 @@
       </c>
       <c r="F11" t="s">
         <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
       </c>
       <c r="H11" t="str">
         <f>IF(E33, "korte reis", "")</f>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F1EBF-74EA-438A-A74E-DC6E9AC79E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FE83E5-F1EF-4E43-9719-2A0EFEC2DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Writing about SAT, SMT, Reading 71 CVC3, Reading 72 A System for Solving Constraint Satisfaction Problems with SMT bofill-sat10.pdf</t>
+  </si>
+  <si>
+    <t>Writing conclusion of chapter CP, proofreading chapter CP, partial reading 73 Simplify A Theorem Prover for Program Checking 1066100.1066102.pdf</t>
   </si>
 </sst>
 </file>
@@ -596,61 +599,61 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>205</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>225</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>263</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>321</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>359</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>397</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>435</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>473</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>511</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>549</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>587</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>625</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>663</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>701</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>721</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>721</c:v>
+                  <c:v>815</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>721</c:v>
+                  <c:v>815</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>721</c:v>
+                  <c:v>815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,61 +816,61 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>200</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,14 +1745,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -2078,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,22 +2404,22 @@
         <v>38</v>
       </c>
       <c r="D13" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4">
         <f>Sheet2!C12</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>200</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
+        <v>207</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -2428,7 +2431,7 @@
         <v>39</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <f>Sheet2!C13</f>
@@ -2436,11 +2439,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2455,7 +2458,7 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <f>Sheet2!C14</f>
@@ -2463,11 +2466,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2490,11 +2493,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2509,7 +2512,7 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
@@ -2517,11 +2520,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2536,7 +2539,7 @@
         <v>43</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
@@ -2544,11 +2547,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2563,7 +2566,7 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
@@ -2571,11 +2574,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2590,7 +2593,7 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
@@ -2598,11 +2601,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2617,7 +2620,7 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <f>Sheet2!C20</f>
@@ -2625,11 +2628,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2644,7 +2647,7 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <f>Sheet2!C21</f>
@@ -2652,11 +2655,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2671,7 +2674,7 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
@@ -2679,11 +2682,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2698,7 +2701,7 @@
         <v>49</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
@@ -2706,11 +2709,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2725,7 +2728,7 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <f>Sheet2!C24</f>
@@ -2733,11 +2736,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2752,7 +2755,7 @@
         <v>51</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
@@ -2760,11 +2763,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2779,7 +2782,7 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <f>Sheet2!C26</f>
@@ -2787,11 +2790,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2806,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <f>Sheet2!C27</f>
@@ -2814,11 +2817,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>721</v>
+        <v>775</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2833,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <f>Sheet2!C28</f>
@@ -2841,11 +2844,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2868,11 +2871,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2895,11 +2898,11 @@
       </c>
       <c r="F31">
         <f>SUM($D$3:D31)</f>
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="G31">
         <f>SUM($E$3:E31)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
@@ -2914,11 +2917,11 @@
       </c>
       <c r="D33">
         <f>SUM($D$3:D31)</f>
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="E33">
         <f>SUM($E$3:E31)</f>
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,8 +2929,8 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <f>$G$31-F12</f>
-        <v>15</v>
+        <f>$G$31-F13</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2955,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3370,7 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <f>8+7+5+6</f>
+        <f>8+7+5+6+0+0+0</f>
         <v>26</v>
       </c>
       <c r="D11" t="s">
@@ -3406,13 +3409,16 @@
       <c r="B12">
         <v>38</v>
       </c>
+      <c r="C12">
+        <f>0+7</f>
+        <v>7</v>
+      </c>
       <c r="D12" t="str">
         <f>IF(E33, "kot verhuis", "")</f>
         <v>kot verhuis</v>
       </c>
-      <c r="G12" t="str">
-        <f>IF(E33, "onderwijsnamiddag", "")</f>
-        <v>onderwijsnamiddag</v>
+      <c r="E12" t="s">
+        <v>82</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FE83E5-F1EF-4E43-9719-2A0EFEC2DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB710544-187C-4AD2-BCD4-CE2D6FA31B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Writing conclusion of chapter CP, proofreading chapter CP, partial reading 73 Simplify A Theorem Prover for Program Checking 1066100.1066102.pdf</t>
+  </si>
+  <si>
+    <t>Proofreading chapter CP, adding conclusion to chapter deofuscation, adding to intro chapter, proofreading intro chapter and chapter around fuzzing, fighting Biber</t>
   </si>
 </sst>
 </file>
@@ -556,9 +559,6 @@
                 <c:pt idx="27">
                   <c:v>44942</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>44949</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -599,61 +599,58 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>215</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>255</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>295</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>315</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>335</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>375</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>415</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>455</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>535</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>575</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>615</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>655</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>735</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>775</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>815</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>815</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>815</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,9 +770,6 @@
                 <c:pt idx="27">
                   <c:v>44942</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>44949</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -816,61 +810,58 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,9 +999,6 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2081,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2169,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B31" si="0">B4+7</f>
+        <f t="shared" ref="B5:B30" si="0">B4+7</f>
         <v>44767</v>
       </c>
       <c r="C5">
@@ -2404,19 +2392,19 @@
         <v>38</v>
       </c>
       <c r="D13" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4">
         <f>Sheet2!C12</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>51</v>
@@ -2439,11 +2427,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2466,11 +2454,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2493,17 +2481,17 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>44851</v>
@@ -2512,7 +2500,7 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
@@ -2520,17 +2508,17 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>44858</v>
@@ -2539,7 +2527,7 @@
         <v>43</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
@@ -2547,17 +2535,17 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>44865</v>
@@ -2566,7 +2554,7 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
@@ -2574,17 +2562,17 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>44872</v>
@@ -2593,7 +2581,7 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
@@ -2601,17 +2589,17 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>44879</v>
@@ -2620,7 +2608,7 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <f>Sheet2!C20</f>
@@ -2628,17 +2616,17 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>44886</v>
@@ -2647,7 +2635,7 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <f>Sheet2!C21</f>
@@ -2655,17 +2643,17 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>44893</v>
@@ -2674,7 +2662,7 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
@@ -2682,17 +2670,17 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>44900</v>
@@ -2701,7 +2689,7 @@
         <v>49</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
@@ -2709,17 +2697,17 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>44907</v>
@@ -2728,7 +2716,7 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <f>Sheet2!C24</f>
@@ -2736,17 +2724,17 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>44914</v>
@@ -2755,7 +2743,7 @@
         <v>51</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
@@ -2763,17 +2751,17 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>44921</v>
@@ -2782,7 +2770,7 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <f>Sheet2!C26</f>
@@ -2790,17 +2778,17 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>735</v>
+        <v>670</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>44928</v>
@@ -2809,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <f>Sheet2!C27</f>
@@ -2817,17 +2805,17 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>775</v>
+        <v>690</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>44935</v>
@@ -2836,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <f>Sheet2!C28</f>
@@ -2844,17 +2832,17 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>815</v>
+        <v>710</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>44942</v>
@@ -2871,72 +2859,45 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>815</v>
+        <v>710</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>44949</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f>Sheet2!C30</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
         <f>SUM($D$3:D31)</f>
-        <v>815</v>
-      </c>
-      <c r="G31">
+        <v>710</v>
+      </c>
+      <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>207</v>
-      </c>
-      <c r="H31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33">
-        <f>SUM($D$3:D31)</f>
-        <v>815</v>
-      </c>
-      <c r="E33">
-        <f>SUM($E$3:E31)</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34">
-        <f>$G$31-F13</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>G30-F13</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
   </sheetData>
@@ -2959,7 +2920,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,8 +3371,8 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <f>0+7</f>
-        <v>7</v>
+        <f>0+7+8</f>
+        <v>15</v>
       </c>
       <c r="D12" t="str">
         <f>IF(E33, "kot verhuis", "")</f>
@@ -3419,6 +3380,9 @@
       </c>
       <c r="E12" t="s">
         <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB710544-187C-4AD2-BCD4-CE2D6FA31B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1737CD33-FCA6-40E8-8A59-B8CBBF85E387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Proofreading chapter CP, adding conclusion to chapter deofuscation, adding to intro chapter, proofreading intro chapter and chapter around fuzzing, fighting Biber</t>
+  </si>
+  <si>
+    <t>Proofreading the end of fuzzing, proofreading critical part chapter, rereading parts of papers, stdizing quotes</t>
   </si>
 </sst>
 </file>
@@ -599,19 +602,19 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>220</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>260</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>320</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>320</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>355</c:v>
@@ -810,58 +813,58 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>215</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,19 +2395,19 @@
         <v>38</v>
       </c>
       <c r="D13" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4">
         <f>Sheet2!C12</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>51</v>
@@ -2427,11 +2430,11 @@
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2454,11 +2457,11 @@
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2481,11 +2484,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2508,11 +2511,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2527,7 +2530,7 @@
         <v>43</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
@@ -2539,7 +2542,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2566,7 +2569,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2593,7 +2596,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2620,7 +2623,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2647,7 +2650,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2674,7 +2677,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2701,7 +2704,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2728,7 +2731,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2755,7 +2758,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2782,7 +2785,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2809,7 +2812,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2836,7 +2839,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2863,7 +2866,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2882,7 +2885,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2891,7 +2894,7 @@
       </c>
       <c r="B33">
         <f>G30-F13</f>
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,8 +3374,8 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <f>0+7+8</f>
-        <v>15</v>
+        <f>0+7+8+4</f>
+        <v>19</v>
       </c>
       <c r="D12" t="str">
         <f>IF(E33, "kot verhuis", "")</f>
@@ -3383,6 +3386,9 @@
       </c>
       <c r="F12" t="s">
         <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1737CD33-FCA6-40E8-8A59-B8CBBF85E387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BED1E0-9BB6-4574-81E2-16D2776B0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Proofreading the end of fuzzing, proofreading critical part chapter, rereading parts of papers, stdizing quotes</t>
+  </si>
+  <si>
+    <t>Proofreading via word and other tools</t>
   </si>
 </sst>
 </file>
@@ -813,58 +816,58 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>219</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,7 +2402,7 @@
       </c>
       <c r="E13" s="4">
         <f>Sheet2!C12</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
@@ -2407,7 +2410,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>51</v>
@@ -2434,7 +2437,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2461,7 +2464,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2488,7 +2491,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2515,7 +2518,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2542,7 +2545,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2569,7 +2572,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2596,7 +2599,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2623,7 +2626,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2650,7 +2653,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2677,7 +2680,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2704,7 +2707,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2731,7 +2734,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2758,7 +2761,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2785,7 +2788,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2812,7 +2815,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2839,7 +2842,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2866,7 +2869,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2885,7 +2888,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2897,7 @@
       </c>
       <c r="B33">
         <f>G30-F13</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,8 +3377,8 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <f>0+7+8+4</f>
-        <v>19</v>
+        <f>0+7+8+4+7</f>
+        <v>26</v>
       </c>
       <c r="D12" t="str">
         <f>IF(E33, "kot verhuis", "")</f>
@@ -3389,6 +3392,9 @@
       </c>
       <c r="G12" t="s">
         <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BED1E0-9BB6-4574-81E2-16D2776B0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DAAF26-31F9-49D3-919A-A88C6D47EB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -315,7 +315,10 @@
     <t>Proofreading the end of fuzzing, proofreading critical part chapter, rereading parts of papers, stdizing quotes</t>
   </si>
   <si>
-    <t>Proofreading via word and other tools</t>
+    <t>Proofreading via Word, schrijfhulp and other tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding research Questions, brainstorming in general </t>
   </si>
 </sst>
 </file>
@@ -816,58 +819,58 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>226</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,7 +2405,7 @@
       </c>
       <c r="E13" s="4">
         <f>Sheet2!C12</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
@@ -2410,7 +2413,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>51</v>
@@ -2437,7 +2440,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2464,7 +2467,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2491,7 +2494,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2518,7 +2521,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2545,7 +2548,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2572,7 +2575,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2599,7 +2602,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2626,7 +2629,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2653,7 +2656,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2680,7 +2683,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2707,7 +2710,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2734,7 +2737,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2788,7 +2791,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2815,7 +2818,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2842,7 +2845,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2869,7 +2872,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2888,7 +2891,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2900,7 @@
       </c>
       <c r="B33">
         <f>G30-F13</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,8 +3380,8 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <f>0+7+8+4+7</f>
-        <v>26</v>
+        <f>0+7+8+4+7+6</f>
+        <v>32</v>
       </c>
       <c r="D12" t="str">
         <f>IF(E33, "kot verhuis", "")</f>
@@ -3395,6 +3398,9 @@
       </c>
       <c r="H12" t="s">
         <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DAAF26-31F9-49D3-919A-A88C6D47EB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86CADF-E08C-4F2D-B025-B71F09C1B794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -252,24 +251,12 @@
     <t>examen</t>
   </si>
   <si>
-    <t>SMT or CP</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>fuzzing</t>
-  </si>
-  <si>
     <t>Rereading FuzzSMT Fuzzing and Delta-Debugging SMT Solver, Rereading strom Detecting Critical Bugs in SMT Solvers Using Blackbox Mutational Fuzzing, Reading 44 StringFuzz: A Fuzzer for String Solvers, Rereading 8 KLEE Unassisted and Automatic Generation of High-Coverage, Reading 45 fuzzball Path-Exploration Lifting Hi-Fi Tests for Lo-Fi Emulators, Reading 47 Finding and Understanding Bugs in Software Model Checkers, Reading 48 Differentially Testing Soundness and Precision of Program Analyzers</t>
   </si>
   <si>
     <t>Reading on minimal unsatisfiable subset, Reading 49 TestMC Testing Model Counters using Differential and Metamorphic Testing, Reading 50 Metamorphic testing of constraint solvers, adding parts to further write on</t>
   </si>
   <si>
-    <t>papers about</t>
-  </si>
-  <si>
     <t>thesis meeting, perperation work</t>
   </si>
   <si>
@@ -319,6 +306,18 @@
   </si>
   <si>
     <t xml:space="preserve">Finding research Questions, brainstorming in general </t>
+  </si>
+  <si>
+    <t>More research Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis meeting, processing meeting notes </t>
+  </si>
+  <si>
+    <t>coding a fuzzer</t>
+  </si>
+  <si>
+    <t>Playing around with Storm, reading Storm's source code, converting ipynb to py</t>
   </si>
 </sst>
 </file>
@@ -819,58 +818,58 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>232</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>232</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,7 +2078,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2404,7 @@
       </c>
       <c r="E13" s="4">
         <f>Sheet2!C12</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4">
         <f>SUM($D$3:D13)</f>
@@ -2413,7 +2412,7 @@
       </c>
       <c r="G13" s="4">
         <f>SUM($E$3:E13)</f>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>51</v>
@@ -2432,7 +2431,7 @@
       </c>
       <c r="E14">
         <f>Sheet2!C13</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
@@ -2440,10 +2439,10 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2467,7 +2466,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2494,7 +2493,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2521,7 +2520,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2548,7 +2547,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2575,7 +2574,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2602,7 +2601,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2629,7 +2628,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2656,7 +2655,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2683,7 +2682,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2710,7 +2709,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2737,7 +2736,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2791,7 +2790,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2818,7 +2817,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2845,7 +2844,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2872,7 +2871,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2891,7 +2890,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>232</v>
+        <v>245.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,8 +2898,8 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <f>G30-F13</f>
-        <v>17</v>
+        <f>G30-F14</f>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2928,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,16 +3277,16 @@
         <v>62</v>
       </c>
       <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -3306,26 +3305,26 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" t="str">
         <f>IF(E33, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
         <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -3344,16 +3343,16 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H11" t="str">
         <f>IF(E33, "korte reis", "")</f>
@@ -3380,27 +3379,30 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <f>0+7+8+4+7+6</f>
-        <v>32</v>
+        <f>0+7+8+4+7+6+3</f>
+        <v>35</v>
       </c>
       <c r="D12" t="str">
         <f>IF(E33, "kot verhuis", "")</f>
         <v>kot verhuis</v>
       </c>
       <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>83</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -3413,6 +3415,16 @@
       </c>
       <c r="B13">
         <v>39</v>
+      </c>
+      <c r="C13">
+        <f>2+8.5</f>
+        <v>10.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -3664,250 +3676,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157957EE-64C4-43CE-9071-0561D95D5CE4}">
-  <dimension ref="B2:D39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>32</v>
-      </c>
-      <c r="D20">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>34</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>39</v>
-      </c>
-      <c r="D22">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>41</v>
-      </c>
-      <c r="D23">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>45</v>
-      </c>
-      <c r="D24">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>46</v>
-      </c>
-      <c r="D25">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39">
-        <f>COUNT(C3:C37)</f>
-        <v>23</v>
-      </c>
-      <c r="D39">
-        <f>COUNT(D3:D37)</f>
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D19">
-    <sortCondition ref="D3:D19"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86CADF-E08C-4F2D-B025-B71F09C1B794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F619A12E-1221-4655-819B-45E80A431786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Playing around with Storm, reading Storm's source code, converting ipynb to py</t>
+  </si>
+  <si>
+    <t>Getting Minizinc, gurobi and pysat to work on W10 (dev/debug env) and linux (execute env), running some tests</t>
   </si>
 </sst>
 </file>
@@ -821,55 +824,55 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>245.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2431,7 +2434,7 @@
       </c>
       <c r="E14">
         <f>Sheet2!C13</f>
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
@@ -2439,7 +2442,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -2466,7 +2469,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2493,7 +2496,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2520,7 +2523,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2547,7 +2550,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2574,7 +2577,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2655,7 +2658,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2682,7 +2685,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2736,7 +2739,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2763,7 +2766,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2790,7 +2793,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2817,7 +2820,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2844,7 +2847,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2890,7 +2893,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>245.5</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +2902,7 @@
       </c>
       <c r="B33">
         <f>G30-F14</f>
-        <v>-9.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3417,14 +3420,17 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <f>2+8.5</f>
-        <v>10.5</v>
+        <f>2+9+10</f>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F619A12E-1221-4655-819B-45E80A431786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3374B02E-CE15-4B9E-AF96-1E6742881B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Getting Minizinc, gurobi and pysat to work on W10 (dev/debug env) and linux (execute env), running some tests</t>
+  </si>
+  <si>
+    <t>Writing a transformation fucntion to change the seed solver to Minizinc</t>
   </si>
 </sst>
 </file>
@@ -619,49 +622,49 @@
                   <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>315</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>315</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>355</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>390</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>425</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>460</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>495</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>530</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>565</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>600</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>635</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>670</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>690</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>710</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>710</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,55 +827,55 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>256</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,7 +2084,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2437,7 @@
       </c>
       <c r="E14">
         <f>Sheet2!C13</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
@@ -2442,7 +2445,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -2469,7 +2472,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2484,7 +2487,7 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <f>Sheet2!C15</f>
@@ -2492,11 +2495,11 @@
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2511,7 +2514,7 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
@@ -2519,11 +2522,11 @@
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2573,11 +2576,11 @@
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2654,11 +2657,11 @@
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2708,11 +2711,11 @@
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2735,11 +2738,11 @@
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2762,11 +2765,11 @@
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2789,11 +2792,11 @@
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2816,11 +2819,11 @@
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2843,11 +2846,11 @@
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2870,11 +2873,11 @@
       </c>
       <c r="F30">
         <f>SUM($D$3:D30)</f>
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2889,11 +2892,11 @@
       </c>
       <c r="D32">
         <f>SUM($D$3:D31)</f>
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2905,7 @@
       </c>
       <c r="B33">
         <f>G30-F14</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2931,7 +2934,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,8 +3423,8 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <f>2+9+10</f>
-        <v>21</v>
+        <f>2+9+10+9</f>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>84</v>
@@ -3431,6 +3434,9 @@
       </c>
       <c r="F13" t="s">
         <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3374B02E-CE15-4B9E-AF96-1E6742881B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20206203-58FD-4246-A42E-610C5820BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Writing a transformation fucntion to change the seed solver to Minizinc</t>
+  </si>
+  <si>
+    <t>trying out LaTeX packages, Improving solver transformation (fixing MissingAttributeErrores), speed testing</t>
   </si>
 </sst>
 </file>
@@ -827,55 +830,55 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,7 +2440,7 @@
       </c>
       <c r="E14">
         <f>Sheet2!C13</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
@@ -2445,7 +2448,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -2472,7 +2475,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2499,7 +2502,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -2526,7 +2529,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -2553,7 +2556,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -2580,7 +2583,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2634,7 +2637,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -2661,7 +2664,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2688,7 +2691,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -2715,7 +2718,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2769,7 +2772,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2796,7 +2799,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2823,7 +2826,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2850,7 +2853,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
@@ -2877,7 +2880,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2896,7 +2899,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2908,7 @@
       </c>
       <c r="B33">
         <f>G30-F14</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +2937,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,8 +3426,8 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <f>2+9+10+9</f>
-        <v>30</v>
+        <f>2+9+10+9+8</f>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>84</v>
@@ -3437,6 +3440,9 @@
       </c>
       <c r="G13" t="s">
         <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20206203-58FD-4246-A42E-610C5820BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A326693-D5B6-4BB5-814E-C332D8B7F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -239,9 +239,6 @@
     <t>writing, proofreading</t>
   </si>
   <si>
-    <t>back-up</t>
-  </si>
-  <si>
     <t>tbd</t>
   </si>
   <si>
@@ -327,6 +324,15 @@
   </si>
   <si>
     <t>trying out LaTeX packages, Improving solver transformation (fixing MissingAttributeErrores), speed testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running more test, evaluation results, Reading DTAI's site </t>
+  </si>
+  <si>
+    <t>To late</t>
+  </si>
+  <si>
+    <t>proofreading + submitting</t>
   </si>
 </sst>
 </file>
@@ -830,55 +836,55 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,7 +2322,7 @@
         <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2440,7 +2446,7 @@
       </c>
       <c r="E14">
         <f>Sheet2!C13</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
@@ -2448,10 +2454,10 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2475,10 +2481,10 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2502,10 +2508,10 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2529,10 +2535,10 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2556,10 +2562,10 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2583,10 +2589,10 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2610,10 +2616,10 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2637,10 +2643,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2664,10 +2670,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2691,10 +2697,10 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2718,7 +2724,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2745,7 +2751,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2772,7 +2778,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2799,7 +2805,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2826,7 +2832,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2853,10 +2859,10 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2880,10 +2886,10 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2899,7 +2905,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2914,7 @@
       </c>
       <c r="B33">
         <f>G30-F14</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3283,19 +3289,19 @@
         <v>Self adaptive Systems</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -3314,26 +3320,26 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="str">
         <f>IF(E33, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>72</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -3352,16 +3358,16 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
       </c>
       <c r="H11" t="str">
         <f>IF(E33, "korte reis", "")</f>
@@ -3396,22 +3402,22 @@
         <v>kot verhuis</v>
       </c>
       <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
         <v>78</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>79</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>80</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>82</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -3426,22 +3432,25 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <f>2+9+10+9+8</f>
-        <v>38</v>
+        <f>2+9+10+9+8+4+0</f>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>87</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>88</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>89</v>
       </c>
       <c r="K13" t="s">

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A326693-D5B6-4BB5-814E-C332D8B7F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605CC49-45B1-49C1-8501-1A1A8949BF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>proofreading + submitting</t>
+  </si>
+  <si>
+    <t>DataProcessing</t>
+  </si>
+  <si>
+    <t>prep + Thesis meeting, processing meeting notes, installing extra imports, writing a program to export Pickles</t>
   </si>
 </sst>
 </file>
@@ -836,55 +842,55 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>277</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>277</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2452,7 @@
       </c>
       <c r="E14">
         <f>Sheet2!C13</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <f>SUM($D$3:D14)</f>
@@ -2454,7 +2460,7 @@
       </c>
       <c r="G14">
         <f>SUM($E$3:E14)</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H14" t="s">
         <v>84</v>
@@ -2473,7 +2479,7 @@
       </c>
       <c r="E15">
         <f>Sheet2!C14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
@@ -2481,7 +2487,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -2508,7 +2514,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -2535,7 +2541,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -2562,7 +2568,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
@@ -2589,7 +2595,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H19" t="s">
         <v>60</v>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H20" t="s">
         <v>60</v>
@@ -2643,7 +2649,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H21" t="s">
         <v>60</v>
@@ -2670,7 +2676,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H22" t="s">
         <v>60</v>
@@ -2697,7 +2703,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -2724,7 +2730,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2751,7 +2757,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2778,7 +2784,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2805,7 +2811,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2832,7 +2838,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2859,7 +2865,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H29" t="s">
         <v>91</v>
@@ -2886,7 +2892,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H30" t="s">
         <v>90</v>
@@ -2905,7 +2911,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,8 +2919,8 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <f>G30-F14</f>
-        <v>22</v>
+        <f>G30-F15</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,8 +3438,8 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <f>2+9+10+9+8+4+0</f>
-        <v>42</v>
+        <f>2+9+10+9+8+4+1</f>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
@@ -3453,6 +3459,9 @@
       <c r="I13" t="s">
         <v>89</v>
       </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
       <c r="K13" t="s">
         <v>26</v>
       </c>
@@ -3464,6 +3473,13 @@
       </c>
       <c r="B14">
         <v>40</v>
+      </c>
+      <c r="C14">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605CC49-45B1-49C1-8501-1A1A8949BF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF5D551-747F-49D0-9E18-56EC4F4E15FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -339,6 +339,21 @@
   </si>
   <si>
     <t>prep + Thesis meeting, processing meeting notes, installing extra imports, writing a program to export Pickles</t>
+  </si>
+  <si>
+    <t>Exporting Pickles (seeds files), Reading STOM's code base, trying to get STORM to work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifying Storm </t>
+  </si>
+  <si>
+    <t>Diff testing</t>
+  </si>
+  <si>
+    <t>Metamorphic testing/Ying Yang</t>
+  </si>
+  <si>
+    <t>deobfuscator</t>
   </si>
 </sst>
 </file>
@@ -845,52 +860,52 @@
                   <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>286</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,7 +2494,7 @@
       </c>
       <c r="E15">
         <f>Sheet2!C14</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
@@ -2487,10 +2502,10 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2514,10 +2529,10 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2541,10 +2556,10 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2568,10 +2583,10 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2595,10 +2610,10 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2622,10 +2637,10 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,10 +2664,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2676,10 +2691,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2703,7 +2718,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -2730,7 +2745,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2757,7 +2772,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2784,7 +2799,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2811,7 +2826,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2838,7 +2853,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2865,7 +2880,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H29" t="s">
         <v>91</v>
@@ -2892,7 +2907,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H30" t="s">
         <v>90</v>
@@ -2911,7 +2926,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2935,7 @@
       </c>
       <c r="B33">
         <f>G30-F15</f>
-        <v>-9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,11 +3490,14 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <f>8</f>
-        <v>8</v>
+        <f>8+8</f>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF5D551-747F-49D0-9E18-56EC4F4E15FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B200D521-EE11-43DA-ACE7-153B4019E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>deobfuscator</t>
+  </si>
+  <si>
+    <t>Rewriting STORM to fit CPMpy</t>
   </si>
 </sst>
 </file>
@@ -860,52 +863,52 @@
                   <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>294</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,7 +2116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -2494,7 +2497,7 @@
       </c>
       <c r="E15">
         <f>Sheet2!C14</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
@@ -2502,7 +2505,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H15" t="s">
         <v>95</v>
@@ -2529,7 +2532,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H16" t="s">
         <v>95</v>
@@ -2556,7 +2559,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
         <v>95</v>
@@ -2583,7 +2586,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
         <v>96</v>
@@ -2610,7 +2613,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
         <v>97</v>
@@ -2637,7 +2640,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
         <v>98</v>
@@ -2664,7 +2667,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H21" t="s">
         <v>98</v>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H22" t="s">
         <v>98</v>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -2745,7 +2748,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2799,7 +2802,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2853,7 +2856,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2880,7 +2883,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H29" t="s">
         <v>91</v>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H30" t="s">
         <v>90</v>
@@ -2926,7 +2929,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2938,7 @@
       </c>
       <c r="B33">
         <f>G30-F15</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2963,7 +2966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3490,14 +3493,17 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <f>8+8</f>
-        <v>16</v>
+        <f>8+8+10</f>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>93</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B200D521-EE11-43DA-ACE7-153B4019E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB4EB9-08F4-4AE2-A2F4-AB8770EDEFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -239,9 +239,6 @@
     <t>writing, proofreading</t>
   </si>
   <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>Reading 40 SolverCheck: Declarative Testing of Constraints, Reading 41 Grammar-based Whitebox Fuzzing, finding fuzzing with SMT-papers, reading 42 Fuzzing SMT Solvers via Two-Dimensional, Reading 43 Validating SMT Solvers via Semantic Fusion</t>
   </si>
   <si>
@@ -357,6 +354,12 @@
   </si>
   <si>
     <t>Rewriting STORM to fit CPMpy</t>
+  </si>
+  <si>
+    <t>writing + asking permission</t>
+  </si>
+  <si>
+    <t>recreating seeds, finding out how to evaluate subformulas thanks to Mr Bleukx</t>
   </si>
 </sst>
 </file>
@@ -863,52 +866,52 @@
                   <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,7 +2120,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,7 +2349,7 @@
         <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2481,7 +2484,7 @@
         <v>278</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2497,7 +2500,7 @@
       </c>
       <c r="E15">
         <f>Sheet2!C14</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
@@ -2505,10 +2508,10 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2532,10 +2535,10 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2559,10 +2562,10 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2586,10 +2589,10 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2613,10 +2616,10 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2640,10 +2643,10 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2667,10 +2670,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2694,10 +2697,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,10 +2724,10 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2748,10 +2751,10 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2775,7 +2778,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2802,7 +2805,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2829,10 +2832,10 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2856,7 +2859,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2883,10 +2886,10 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2910,10 +2913,10 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2929,7 +2932,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2941,7 @@
       </c>
       <c r="B33">
         <f>G30-F15</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,19 +3316,19 @@
         <v>Self adaptive Systems</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -3344,26 +3347,26 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="str">
         <f>IF(E33, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>70</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>71</v>
-      </c>
-      <c r="J10" t="s">
-        <v>72</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -3382,16 +3385,16 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
       </c>
       <c r="H11" t="str">
         <f>IF(E33, "korte reis", "")</f>
@@ -3426,22 +3429,22 @@
         <v>kot verhuis</v>
       </c>
       <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
         <v>77</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>78</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>80</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>81</v>
-      </c>
-      <c r="J12" t="s">
-        <v>82</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -3460,25 +3463,25 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>86</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>88</v>
       </c>
-      <c r="I13" t="s">
-        <v>89</v>
-      </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -3493,17 +3496,20 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <f>8+8+10</f>
-        <v>26</v>
+        <f>8+8+10+5</f>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB4EB9-08F4-4AE2-A2F4-AB8770EDEFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A0C6A-5321-420A-8021-8C8E2AF7DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>recreating seeds, finding out how to evaluate subformulas thanks to Mr Bleukx</t>
+  </si>
+  <si>
+    <t>Finding the DTAI Toledo community, planning, watching Milestone M1</t>
+  </si>
+  <si>
+    <t>SUBMISSION DAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASK PERMISSION </t>
+  </si>
+  <si>
+    <t>thesis meeting, finishing off STORM convertion, starting debugging new storm</t>
   </si>
 </sst>
 </file>
@@ -866,52 +878,52 @@
                   <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>309</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>309</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,7 +2132,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,7 +2512,7 @@
       </c>
       <c r="E15">
         <f>Sheet2!C14</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <f>SUM($D$3:D15)</f>
@@ -2508,7 +2520,7 @@
       </c>
       <c r="G15">
         <f>SUM($E$3:E15)</f>
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H15" t="s">
         <v>94</v>
@@ -2527,7 +2539,7 @@
       </c>
       <c r="E16">
         <f>Sheet2!C15</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
@@ -2535,7 +2547,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H16" t="s">
         <v>94</v>
@@ -2562,7 +2574,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -2589,7 +2601,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
@@ -2616,7 +2628,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -2643,7 +2655,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -2670,7 +2682,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H21" t="s">
         <v>97</v>
@@ -2697,7 +2709,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H22" t="s">
         <v>97</v>
@@ -2724,7 +2736,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2751,7 +2763,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2778,7 +2790,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2805,10 +2817,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,10 +2844,10 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2859,7 +2871,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2886,7 +2898,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
@@ -2913,7 +2925,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
@@ -2932,7 +2944,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,8 +2952,8 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <f>G30-F15</f>
-        <v>14</v>
+        <f>G30-F16</f>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,7 +2982,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,8 +3508,8 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <f>8+8+10+5</f>
-        <v>31</v>
+        <f>8+8+10+5+2+0+0</f>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>92</v>
@@ -3511,6 +3523,9 @@
       <c r="G14" t="s">
         <v>100</v>
       </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
       <c r="K14" t="s">
         <v>26</v>
       </c>
@@ -3522,6 +3537,13 @@
       </c>
       <c r="B15">
         <v>41</v>
+      </c>
+      <c r="C15">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$33, "Operatie", "")</f>
@@ -3551,6 +3573,10 @@
       <c r="B16">
         <v>42</v>
       </c>
+      <c r="C16">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K16" t="s">
         <v>26</v>
       </c>
@@ -3563,6 +3589,10 @@
       <c r="B17">
         <v>43</v>
       </c>
+      <c r="C17">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K17" t="s">
         <v>26</v>
       </c>
@@ -3575,6 +3605,10 @@
       <c r="B18">
         <v>44</v>
       </c>
+      <c r="C18">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K18" t="s">
         <v>26</v>
       </c>
@@ -3587,6 +3621,10 @@
       <c r="B19">
         <v>45</v>
       </c>
+      <c r="C19">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K19" t="s">
         <v>26</v>
       </c>
@@ -3599,6 +3637,10 @@
       <c r="B20">
         <v>46</v>
       </c>
+      <c r="C20">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K20" t="s">
         <v>26</v>
       </c>
@@ -3611,6 +3653,10 @@
       <c r="B21">
         <v>47</v>
       </c>
+      <c r="C21">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K21" t="s">
         <v>26</v>
       </c>
@@ -3623,6 +3669,10 @@
       <c r="B22">
         <v>48</v>
       </c>
+      <c r="C22">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K22" t="s">
         <v>26</v>
       </c>
@@ -3635,6 +3685,10 @@
       <c r="B23">
         <v>49</v>
       </c>
+      <c r="C23">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K23" t="s">
         <v>26</v>
       </c>
@@ -3647,6 +3701,10 @@
       <c r="B24">
         <v>50</v>
       </c>
+      <c r="C24">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K24" t="s">
         <v>26</v>
       </c>
@@ -3659,6 +3717,13 @@
       <c r="B25">
         <v>51</v>
       </c>
+      <c r="C25">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
       <c r="K25" t="s">
         <v>26</v>
       </c>
@@ -3671,6 +3736,10 @@
       <c r="B26">
         <v>52</v>
       </c>
+      <c r="C26">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K26" t="s">
         <v>26</v>
       </c>
@@ -3683,6 +3752,10 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K27" t="s">
         <v>26</v>
       </c>
@@ -3695,6 +3768,13 @@
       <c r="B28">
         <v>2</v>
       </c>
+      <c r="C28">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
       <c r="K28" t="s">
         <v>26</v>
       </c>
@@ -3707,6 +3787,10 @@
       <c r="B29">
         <v>3</v>
       </c>
+      <c r="C29">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K29" t="s">
         <v>26</v>
       </c>
@@ -3718,6 +3802,10 @@
       </c>
       <c r="B30">
         <v>4</v>
+      </c>
+      <c r="C30">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A0C6A-5321-420A-8021-8C8E2AF7DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C5C512-75B3-4717-A921-B5FA43E1E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>thesis meeting, finishing off STORM convertion, starting debugging new storm</t>
+  </si>
+  <si>
+    <t>Debugging new STORM, investigating why cpmpy does not set model.status()  when using solverlookup()</t>
   </si>
 </sst>
 </file>
@@ -881,49 +884,49 @@
                   <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>320</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2542,7 @@
       </c>
       <c r="E16">
         <f>Sheet2!C15</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
@@ -2547,7 +2550,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H16" t="s">
         <v>94</v>
@@ -2574,7 +2577,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -2655,7 +2658,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -2682,7 +2685,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H21" t="s">
         <v>97</v>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H22" t="s">
         <v>97</v>
@@ -2736,7 +2739,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2763,7 +2766,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2790,7 +2793,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2817,7 +2820,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
@@ -2844,7 +2847,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2898,7 +2901,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
@@ -2925,7 +2928,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
@@ -2944,7 +2947,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +2956,7 @@
       </c>
       <c r="B33">
         <f>G30-F16</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,11 +3542,14 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <f>9</f>
-        <v>9</v>
+        <f>9+5</f>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$33, "Operatie", "")</f>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C5C512-75B3-4717-A921-B5FA43E1E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A2291-EDDD-4913-A19E-2F9DAF6C2E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>Debugging new STORM, investigating why cpmpy does not set model.status()  when using solverlookup()</t>
+  </si>
+  <si>
+    <t>Finding ~(alldifferent()-bug)</t>
   </si>
 </sst>
 </file>
@@ -884,49 +887,49 @@
                   <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>325</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>325</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2545,7 @@
       </c>
       <c r="E16">
         <f>Sheet2!C15</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
@@ -2550,7 +2553,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
         <v>94</v>
@@ -2569,7 +2572,7 @@
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -2604,7 +2607,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
@@ -2631,7 +2634,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -2658,7 +2661,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -2685,7 +2688,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H21" t="s">
         <v>97</v>
@@ -2712,7 +2715,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H22" t="s">
         <v>97</v>
@@ -2739,7 +2742,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2766,7 +2769,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2820,7 +2823,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
@@ -2847,7 +2850,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2874,7 +2877,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2901,7 +2904,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
@@ -2928,7 +2931,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
@@ -2947,7 +2950,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2955,8 +2958,8 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <f>G30-F16</f>
-        <v>14</v>
+        <f>G30-F17</f>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,14 +3545,17 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <f>9+5</f>
-        <v>14</v>
+        <f>9+5+4+0+0+0</f>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
       </c>
       <c r="E15" t="s">
         <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$33, "Operatie", "")</f>
@@ -3580,8 +3586,12 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <f>0</f>
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f>_xlfn.CONCAT(IF($E$33, "Revalidatie", ""),  ", solving ~ Global function bug, writing a around chapter 5 Research Questions")</f>
+        <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A2291-EDDD-4913-A19E-2F9DAF6C2E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6F5B5-C03B-47B2-B0F3-3AFF70A64B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Finding ~(alldifferent()-bug)</t>
+  </si>
+  <si>
+    <t>Writing and bug exploration</t>
   </si>
 </sst>
 </file>
@@ -890,46 +893,46 @@
                   <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>334</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,7 +2575,7 @@
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
@@ -2580,7 +2583,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
@@ -2634,7 +2637,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -2661,7 +2664,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -2688,7 +2691,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H21" t="s">
         <v>97</v>
@@ -2715,7 +2718,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H22" t="s">
         <v>97</v>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2769,7 +2772,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2796,7 +2799,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2823,7 +2826,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
@@ -2850,7 +2853,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2877,7 +2880,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2904,7 +2907,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
@@ -2931,7 +2934,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
@@ -2950,7 +2953,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,7 +2962,7 @@
       </c>
       <c r="B33">
         <f>G30-F17</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2991,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,12 +3589,15 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <f>5</f>
-        <v>5</v>
+        <f>5+5</f>
+        <v>10</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(IF($E$33, "Revalidatie", ""),  ", solving ~ Global function bug, writing a around chapter 5 Research Questions")</f>
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6F5B5-C03B-47B2-B0F3-3AFF70A64B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D8B7DD-9E27-4ECC-9600-486FDADC5ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -374,13 +374,16 @@
     <t>thesis meeting, finishing off STORM convertion, starting debugging new storm</t>
   </si>
   <si>
-    <t>Debugging new STORM, investigating why cpmpy does not set model.status()  when using solverlookup()</t>
-  </si>
-  <si>
     <t>Finding ~(alldifferent()-bug)</t>
   </si>
   <si>
-    <t>Writing and bug exploration</t>
+    <t>Debugging new STORM, investigating why cpmpy does not set model.status()  when using solverlookup()+ seminar</t>
+  </si>
+  <si>
+    <t>Writing and bug exploration + seminar</t>
+  </si>
+  <si>
+    <t>solving env variables problems, running the big fuzzer on a server, writing a small minimizer (I use musx given by CPMpy &lt;3)</t>
   </si>
 </sst>
 </file>
@@ -890,49 +893,49 @@
                   <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>329</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>339</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +2144,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,7 +2551,7 @@
       </c>
       <c r="E16">
         <f>Sheet2!C15</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <f>SUM($D$3:D16)</f>
@@ -2556,7 +2559,7 @@
       </c>
       <c r="G16">
         <f>SUM($E$3:E16)</f>
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
         <v>94</v>
@@ -2575,7 +2578,7 @@
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
@@ -2583,7 +2586,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -2610,7 +2613,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
@@ -2637,7 +2640,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -2664,7 +2667,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H21" t="s">
         <v>97</v>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H22" t="s">
         <v>97</v>
@@ -2745,7 +2748,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2799,7 +2802,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
@@ -2853,7 +2856,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2880,7 +2883,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
@@ -2934,7 +2937,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
@@ -2953,7 +2956,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2965,7 @@
       </c>
       <c r="B33">
         <f>G30-F17</f>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +2994,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,17 +3551,17 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <f>9+5+4+0+0+0</f>
-        <v>18</v>
+        <f>9+6+4+0+0+0</f>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
       </c>
       <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
         <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$33, "Operatie", "")</f>
@@ -3589,8 +3592,8 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <f>5+5</f>
-        <v>10</v>
+        <f>5+6+7</f>
+        <v>18</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(IF($E$33, "Revalidatie", ""),  ", solving ~ Global function bug, writing a around chapter 5 Research Questions")</f>
@@ -3598,6 +3601,9 @@
       </c>
       <c r="E16" t="s">
         <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D8B7DD-9E27-4ECC-9600-486FDADC5ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F64368E-1D70-4905-9E88-1EF109918636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>solving env variables problems, running the big fuzzer on a server, writing a small minimizer (I use musx given by CPMpy &lt;3)</t>
+  </si>
+  <si>
+    <t>debugging error that occurs after x hours, output investigation</t>
+  </si>
+  <si>
+    <t>REQUEST ENGLISH THESIS</t>
   </si>
 </sst>
 </file>
@@ -896,46 +902,46 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,7 +2584,7 @@
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
@@ -2586,7 +2592,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -2613,7 +2619,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
@@ -2640,7 +2646,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -2667,7 +2673,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -2694,7 +2700,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H21" t="s">
         <v>97</v>
@@ -2721,7 +2727,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H22" t="s">
         <v>97</v>
@@ -2748,7 +2754,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2775,7 +2781,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2802,7 +2808,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2829,7 +2835,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
@@ -2856,7 +2862,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2883,7 +2889,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2910,7 +2916,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
@@ -2937,7 +2943,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
@@ -2956,7 +2962,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2971,7 @@
       </c>
       <c r="B33">
         <f>G30-F17</f>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +3000,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3592,8 +3598,8 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <f>5+6+7</f>
-        <v>18</v>
+        <f>5+6+7+8</f>
+        <v>26</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(IF($E$33, "Revalidatie", ""),  ", solving ~ Global function bug, writing a around chapter 5 Research Questions")</f>
@@ -3604,6 +3610,12 @@
       </c>
       <c r="F16" t="s">
         <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F64368E-1D70-4905-9E88-1EF109918636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69EEFDF-18BA-47B8-ADB8-295A3A82EF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -389,7 +389,10 @@
     <t>debugging error that occurs after x hours, output investigation</t>
   </si>
   <si>
-    <t>REQUEST ENGLISH THESIS</t>
+    <t xml:space="preserve">requesting thesis in English, fixing yet another bug in big run, adding timeout to deobfucation, brainstorm about next technique, workshop thesis: Information Literacy </t>
+  </si>
+  <si>
+    <t>Result processing</t>
   </si>
 </sst>
 </file>
@@ -902,46 +905,46 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>356</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,7 +2153,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,7 +2587,7 @@
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
@@ -2592,7 +2595,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -2619,7 +2622,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -2700,7 +2703,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H21" t="s">
         <v>97</v>
@@ -2727,10 +2730,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2754,7 +2757,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2781,7 +2784,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2835,7 +2838,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
@@ -2862,7 +2865,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2916,7 +2919,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
@@ -2943,7 +2946,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
@@ -2962,7 +2965,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2971,7 +2974,7 @@
       </c>
       <c r="B33">
         <f>G30-F17</f>
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +3003,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,7 +3560,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <f>9+6+4+0+0+0</f>
+        <f>9+6+4+0+0+0+0</f>
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -3598,8 +3601,8 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <f>5+6+7+8</f>
-        <v>26</v>
+        <f>5+6+7+8+9</f>
+        <v>35</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(IF($E$33, "Revalidatie", ""),  ", solving ~ Global function bug, writing a around chapter 5 Research Questions")</f>
@@ -3614,7 +3617,7 @@
       <c r="G16" t="s">
         <v>109</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>110</v>
       </c>
       <c r="K16" t="s">

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69EEFDF-18BA-47B8-ADB8-295A3A82EF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E9B4F-1A62-4B0F-9AB4-69665FC32DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Result processing</t>
+  </si>
+  <si>
+    <t>looking at results</t>
   </si>
 </sst>
 </file>
@@ -905,46 +908,46 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,7 +2590,7 @@
       </c>
       <c r="E17">
         <f>Sheet2!C16</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <f>SUM($D$3:D17)</f>
@@ -2595,7 +2598,7 @@
       </c>
       <c r="G17">
         <f>SUM($E$3:E17)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -2622,7 +2625,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
@@ -2649,7 +2652,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -2676,7 +2679,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -2703,7 +2706,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H21" t="s">
         <v>97</v>
@@ -2730,7 +2733,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H22" t="s">
         <v>111</v>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2784,7 +2787,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2811,7 +2814,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2838,7 +2841,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
@@ -2865,7 +2868,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2892,7 +2895,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
@@ -2946,7 +2949,7 @@
       </c>
       <c r="G30">
         <f>SUM($E$3:E30)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
@@ -2965,7 +2968,7 @@
       </c>
       <c r="E32">
         <f>SUM($E$3:E31)</f>
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,8 +2976,8 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <f>G30-F17</f>
-        <v>38</v>
+        <f>G30-F18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,8 +3604,8 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <f>5+6+7+8+9</f>
-        <v>35</v>
+        <f>5+6+7+8+9+0+2</f>
+        <v>37</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(IF($E$33, "Revalidatie", ""),  ", solving ~ Global function bug, writing a around chapter 5 Research Questions")</f>
@@ -3619,6 +3622,9 @@
       </c>
       <c r="H16" t="s">
         <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E9B4F-1A62-4B0F-9AB4-69665FC32DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEDCA9D-436B-4109-A70C-C707D3E70380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -326,9 +326,6 @@
     <t xml:space="preserve">Running more test, evaluation results, Reading DTAI's site </t>
   </si>
   <si>
-    <t>To late</t>
-  </si>
-  <si>
     <t>proofreading + submitting</t>
   </si>
   <si>
@@ -396,6 +393,12 @@
   </si>
   <si>
     <t>looking at results</t>
+  </si>
+  <si>
+    <t>###################################</t>
+  </si>
+  <si>
+    <t>preping results for thesis meeting, thesis meeting, bug reporting, looking at ways to get stacktraces, Improving the modified Storm Thanks to Ignace's tips</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$31</c:f>
+              <c:f>Sheet1!$B$3:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44753</c:v>
                 </c:pt>
@@ -641,19 +644,16 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44935</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$31</c:f>
+              <c:f>Sheet1!$F$3:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -733,9 +733,6 @@
                   <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>722</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>722</c:v>
                 </c:pt>
               </c:numCache>
@@ -768,10 +765,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$31</c:f>
+              <c:f>Sheet1!$B$3:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44753</c:v>
                 </c:pt>
@@ -852,19 +849,16 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44935</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$31</c:f>
+              <c:f>Sheet1!$G$3:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -911,43 +905,40 @@
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>367</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,13 +987,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$3:$H$31</c15:sqref>
+                          <c15:sqref>Sheet1!$H$3:$H$30</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="29"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -1082,9 +1073,6 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2153,9 +2141,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -2255,7 +2243,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B30" si="0">B4+7</f>
+        <f t="shared" ref="B5:B29" si="0">B4+7</f>
         <v>44767</v>
       </c>
       <c r="C5">
@@ -2547,7 +2535,7 @@
         <v>311</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2574,7 +2562,7 @@
         <v>330</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2601,7 +2589,7 @@
         <v>367</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2617,7 +2605,7 @@
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
@@ -2625,10 +2613,10 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,10 +2640,10 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,10 +2667,10 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2706,10 +2694,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2733,10 +2721,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2760,7 +2748,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2787,7 +2775,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2814,7 +2802,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2841,10 +2829,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2868,7 +2856,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2895,7 +2883,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2922,75 +2910,48 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>44942</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f>Sheet2!C29</f>
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31">
         <f>SUM($D$3:D30)</f>
         <v>722</v>
       </c>
-      <c r="G30">
+      <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>367</v>
-      </c>
-      <c r="H30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32">
-        <f>SUM($D$3:D31)</f>
-        <v>722</v>
-      </c>
-      <c r="E32">
-        <f>SUM($E$3:E31)</f>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
-        <f>G30-F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>E31-F18</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E31">
+  <conditionalFormatting sqref="E7:E30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3003,10 +2964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,11 +3068,11 @@
         <v>15</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(E33, "36°C", "")</f>
+        <f>IF(E32, "36°C", "")</f>
         <v>36°C</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(E33, "38°C", "")</f>
+        <f>IF(E32, "38°C", "")</f>
         <v>38°C</v>
       </c>
       <c r="F3" t="s">
@@ -3135,7 +3096,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A30" si="0">A3+7</f>
+        <f t="shared" ref="A4:A29" si="0">A3+7</f>
         <v>44767</v>
       </c>
       <c r="B4">
@@ -3195,7 +3156,7 @@
         <v>45</v>
       </c>
       <c r="H5" t="str">
-        <f>IF(E33, "Hobby Stura", "")</f>
+        <f>IF(E32, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="I5" t="s">
@@ -3264,23 +3225,23 @@
         <v>57</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="E7:J9" si="1">IF($E$33, "Self adaptive Systems", "")</f>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="K7" t="s">
@@ -3300,31 +3261,31 @@
         <v>0</v>
       </c>
       <c r="D8" t="str">
-        <f>IF($E$33, "Self adaptive Systems", "")</f>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="K8" t="s">
@@ -3344,11 +3305,11 @@
         <v>25</v>
       </c>
       <c r="D9" t="str">
-        <f>IF($E$33, "Self adaptive Systems", "")</f>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="F9" t="s">
@@ -3386,7 +3347,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(E33, "Hobby Stura", "")</f>
+        <f>IF(E32, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="F10" t="s">
@@ -3433,15 +3394,15 @@
         <v>75</v>
       </c>
       <c r="H11" t="str">
-        <f>IF(E33, "korte reis", "")</f>
+        <f>IF(E32, "korte reis", "")</f>
         <v>korte reis</v>
       </c>
       <c r="I11" t="str">
-        <f>IF(E33, "korte reis", "")</f>
+        <f>IF(E32, "korte reis", "")</f>
         <v>korte reis</v>
       </c>
       <c r="J11" t="str">
-        <f>IF(E33, "korte reis", "")</f>
+        <f>IF(E32, "korte reis", "")</f>
         <v>korte reis</v>
       </c>
       <c r="K11" t="s">
@@ -3461,7 +3422,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(E33, "kot verhuis", "")</f>
+        <f>IF(E32, "kot verhuis", "")</f>
         <v>kot verhuis</v>
       </c>
       <c r="E12" t="s">
@@ -3517,7 +3478,7 @@
         <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -3536,19 +3497,19 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
         <v>100</v>
-      </c>
-      <c r="H14" t="s">
-        <v>101</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -3567,28 +3528,28 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
         <v>104</v>
       </c>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
-      </c>
       <c r="G15" t="str">
-        <f>IF($E$33, "Operatie", "")</f>
+        <f>IF($E$32, "Operatie", "")</f>
         <v>Operatie</v>
       </c>
       <c r="H15" t="str">
-        <f>IF($E$33, "Revalidatie", "")</f>
+        <f>IF($E$32, "Revalidatie", "")</f>
         <v>Revalidatie</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ref="I15:J15" si="2">IF($E$33, "Revalidatie", "")</f>
+        <f>IF($E$32, "Revalidatie", "")</f>
         <v>Revalidatie</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($E$32, "Revalidatie", "")</f>
         <v>Revalidatie</v>
       </c>
       <c r="K15" t="s">
@@ -3608,23 +3569,23 @@
         <v>37</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.CONCAT(IF($E$33, "Revalidatie", ""),  ", solving ~ Global function bug, writing a around chapter 5 Research Questions")</f>
+        <f>_xlfn.CONCAT(IF($E$32, "Revalidatie, ", ""),  "solving ~ Global function bug, writing a around chapter 5 Research Questions")</f>
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
         <v>107</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -3639,8 +3600,11 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <f>0</f>
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -3771,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -3822,7 +3786,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" t="s">
+        <v>112</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -3840,22 +3813,33 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" t="s">
+        <v>112</v>
+      </c>
       <c r="K29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>44949</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="K30" t="s">
         <v>26</v>
       </c>
@@ -3866,21 +3850,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="b">
+      <c r="E32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEDCA9D-436B-4109-A70C-C707D3E70380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F770D3-D07A-4B36-864C-95261A350AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>preping results for thesis meeting, thesis meeting, bug reporting, looking at ways to get stacktraces, Improving the modified Storm Thanks to Ignace's tips</t>
+  </si>
+  <si>
+    <t>Proofreading</t>
+  </si>
+  <si>
+    <t>Mostly making presentation for M2 (rough day)</t>
   </si>
 </sst>
 </file>
@@ -505,6 +511,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Planning</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -530,13 +561,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12511739214234791"/>
+          <c:y val="0.17111880046136102"/>
+          <c:w val="0.81363149336275065"/>
+          <c:h val="0.6419220953782161"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -560,10 +601,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$30</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$3:$B$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44753</c:v>
                 </c:pt>
@@ -650,10 +698,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$30</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$3:$F$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$3:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -765,10 +820,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$30</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$3:$B$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44753</c:v>
                 </c:pt>
@@ -855,10 +917,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$30</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$G$3:$G$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$G$3:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -905,40 +974,40 @@
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,14 +1055,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$H$3:$H$30</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$3:$H$30</c15:sqref>
+                          <c15:sqref>Sheet1!$H$3:$H$29</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="28"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -1114,7 +1186,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-1500000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1130,7 +1202,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1327462816"/>
@@ -1138,6 +1210,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="15"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1327462816"/>
@@ -1160,6 +1234,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Uur</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1188,7 +1317,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1327462400"/>
@@ -1203,6 +1332,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12693299737532809"/>
+          <c:y val="0.17321744816500015"/>
+          <c:w val="0.21766989064568926"/>
+          <c:h val="0.2802779064381658"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1236,7 +1406,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1808,13 +1978,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -2144,7 +2314,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2413,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B29" si="0">B4+7</f>
+        <f t="shared" ref="B5:B30" si="0">B4+7</f>
         <v>44767</v>
       </c>
       <c r="C5">
@@ -2605,7 +2775,7 @@
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
@@ -2613,7 +2783,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H18" t="s">
         <v>94</v>
@@ -2640,7 +2810,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H19" t="s">
         <v>95</v>
@@ -2667,7 +2837,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H20" t="s">
         <v>96</v>
@@ -2694,7 +2864,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H21" t="s">
         <v>110</v>
@@ -2721,7 +2891,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H22" t="s">
         <v>110</v>
@@ -2748,7 +2918,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2775,7 +2945,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2802,7 +2972,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2829,7 +2999,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H26" t="s">
         <v>98</v>
@@ -2856,7 +3026,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2883,10 +3053,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2910,14 +3080,23 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>44942</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2929,7 +3108,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2938,7 +3117,7 @@
       </c>
       <c r="B32">
         <f>E31-F18</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -2967,7 +3146,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3225,23 +3404,23 @@
         <v>57</v>
       </c>
       <c r="F7" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" ref="F7:J8" si="1">IF($E$32, "Self adaptive Systems", "")</f>
         <v>Self adaptive Systems</v>
       </c>
       <c r="G7" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="H7" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="I7" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="J7" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="K7" t="s">
@@ -3269,23 +3448,23 @@
         <v>Self adaptive Systems</v>
       </c>
       <c r="F8" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="G8" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="H8" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="I8" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="J8" t="str">
-        <f>IF($E$32, "Self adaptive Systems", "")</f>
+        <f t="shared" si="1"/>
         <v>Self adaptive Systems</v>
       </c>
       <c r="K8" t="s">
@@ -3600,11 +3779,14 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <f>9</f>
-        <v>9</v>
+        <f>9+5</f>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F770D3-D07A-4B36-864C-95261A350AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33381379-3EFB-4E8E-9217-26837BD82E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>Mostly making presentation for M2 (rough day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">building differential testing </t>
   </si>
 </sst>
 </file>
@@ -974,40 +977,40 @@
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>381</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,7 +2778,7 @@
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
@@ -2783,7 +2786,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H18" t="s">
         <v>94</v>
@@ -2810,7 +2813,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H19" t="s">
         <v>95</v>
@@ -2837,7 +2840,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H20" t="s">
         <v>96</v>
@@ -2864,7 +2867,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H21" t="s">
         <v>110</v>
@@ -2891,7 +2894,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H22" t="s">
         <v>110</v>
@@ -2918,7 +2921,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2945,7 +2948,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2972,7 +2975,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2999,7 +3002,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H26" t="s">
         <v>98</v>
@@ -3026,7 +3029,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3053,7 +3056,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H28" t="s">
         <v>114</v>
@@ -3080,7 +3083,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H29" t="s">
         <v>89</v>
@@ -3108,7 +3111,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3117,7 +3120,7 @@
       </c>
       <c r="B32">
         <f>E31-F18</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3146,7 +3149,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,14 +3782,17 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <f>9+5</f>
-        <v>14</v>
+        <f>9+5+8</f>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
       </c>
       <c r="E17" t="s">
         <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33381379-3EFB-4E8E-9217-26837BD82E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD30636C-7878-49C7-8383-F8C99DCAAC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
     <t>Mostly making presentation for M2 (rough day)</t>
   </si>
   <si>
-    <t xml:space="preserve">building differential testing </t>
+    <t>building differential testing, debugging some errors (thanks to Linux for OOM killer)</t>
   </si>
 </sst>
 </file>
@@ -977,40 +977,40 @@
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>389</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H18" t="s">
         <v>94</v>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H19" t="s">
         <v>95</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H20" t="s">
         <v>96</v>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H21" t="s">
         <v>110</v>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H22" t="s">
         <v>110</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H26" t="s">
         <v>98</v>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H28" t="s">
         <v>114</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H29" t="s">
         <v>89</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B32">
         <f>E31-F18</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,8 +3782,8 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <f>9+5+8</f>
-        <v>22</v>
+        <f>9+5+10</f>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD30636C-7878-49C7-8383-F8C99DCAAC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7B868-6559-42E2-B277-7C0BD83571E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>writing</t>
   </si>
   <si>
-    <t>comparision with other fuzzers</t>
-  </si>
-  <si>
     <t>tutorial_ijcai22 pdf's, reading 12 Fuzzing a survey</t>
   </si>
   <si>
@@ -408,6 +405,9 @@
   </si>
   <si>
     <t>building differential testing, debugging some errors (thanks to Linux for OOM killer)</t>
+  </si>
+  <si>
+    <t>Finishing ppt, learining ppt, looking at recent CPMpy changes, debugging diff tester, writing patch for diff tester</t>
   </si>
 </sst>
 </file>
@@ -977,40 +977,40 @@
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>391</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,9 +1127,6 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="21">
@@ -1344,7 +1341,7 @@
           <c:x val="0.12693299737532809"/>
           <c:y val="0.17321744816500015"/>
           <c:w val="0.21766989064568926"/>
-          <c:h val="0.2802779064381658"/>
+          <c:h val="0.19723292373920387"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2317,7 +2314,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C30"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2492,7 +2489,7 @@
         <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -2519,7 +2516,7 @@
         <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -2546,7 +2543,7 @@
         <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2654,7 +2651,7 @@
         <v>235</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -2681,7 +2678,7 @@
         <v>278</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2708,7 +2705,7 @@
         <v>311</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2735,7 +2732,7 @@
         <v>330</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2762,7 +2759,7 @@
         <v>367</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2778,7 +2775,7 @@
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
@@ -2786,10 +2783,10 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2813,10 +2810,10 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2840,10 +2837,10 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2867,10 +2864,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2894,10 +2891,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2921,10 +2918,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>391</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2948,7 +2942,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2975,7 +2969,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3002,10 +2996,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3029,7 +3023,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3056,10 +3050,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3083,10 +3077,10 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3111,22 +3105,26 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <f>E31-F18</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f>SUM(E3:E13)</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -3149,7 +3147,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,10 +3265,10 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -3289,25 +3287,25 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -3326,26 +3324,26 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
       </c>
       <c r="H5" t="str">
         <f>IF(E32, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -3364,25 +3362,25 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>53</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -3401,10 +3399,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="F7:J8" si="1">IF($E$32, "Self adaptive Systems", "")</f>
@@ -3495,19 +3493,19 @@
         <v>Self adaptive Systems</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -3526,26 +3524,26 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="str">
         <f>IF(E32, "Hobby Stura", "")</f>
         <v>Hobby Stura</v>
       </c>
       <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
         <v>67</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>69</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>70</v>
-      </c>
-      <c r="J10" t="s">
-        <v>71</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -3564,16 +3562,16 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
       </c>
       <c r="H11" t="str">
         <f>IF(E32, "korte reis", "")</f>
@@ -3608,22 +3606,22 @@
         <v>kot verhuis</v>
       </c>
       <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>78</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>79</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>81</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -3642,25 +3640,25 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" t="s">
-        <v>88</v>
-      </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -3679,19 +3677,19 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
         <v>91</v>
       </c>
-      <c r="E14" t="s">
-        <v>92</v>
-      </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
         <v>99</v>
-      </c>
-      <c r="H14" t="s">
-        <v>100</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -3710,13 +3708,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
         <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>104</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$32, "Operatie", "")</f>
@@ -3755,19 +3753,19 @@
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
         <v>106</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>107</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>108</v>
       </c>
-      <c r="H16" t="s">
-        <v>109</v>
-      </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -3782,16 +3780,19 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <f>9+5+10</f>
-        <v>24</v>
+        <f>9+5+10+9</f>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
         <v>115</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>116</v>
       </c>
       <c r="K17" t="s">
@@ -3923,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -3974,16 +3975,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4002,25 +4003,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7B868-6559-42E2-B277-7C0BD83571E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA7A887-F73D-45B2-80EC-A62F5972D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="118">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>Finishing ppt, learining ppt, looking at recent CPMpy changes, debugging diff tester, writing patch for diff tester</t>
+  </si>
+  <si>
+    <t>debugging OOM Killer bug, rerunning tests, writing a bit</t>
   </si>
 </sst>
 </file>
@@ -977,40 +980,40 @@
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>400</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,7 +2778,7 @@
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
@@ -2783,7 +2786,7 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H18" t="s">
         <v>93</v>
@@ -2810,7 +2813,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H19" t="s">
         <v>94</v>
@@ -2837,7 +2840,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H20" t="s">
         <v>95</v>
@@ -2864,7 +2867,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H21" t="s">
         <v>109</v>
@@ -2891,7 +2894,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H22" t="s">
         <v>109</v>
@@ -2918,7 +2921,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2942,7 +2945,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2969,7 +2972,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2996,7 +2999,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H26" t="s">
         <v>97</v>
@@ -3023,7 +3026,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3050,7 +3053,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H28" t="s">
         <v>113</v>
@@ -3077,7 +3080,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3114,7 +3117,7 @@
       </c>
       <c r="B32">
         <f>E31-F18</f>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3780,8 +3783,8 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <f>9+5+10+9</f>
-        <v>33</v>
+        <f>9+5+10+9+9</f>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3794,6 +3797,9 @@
       </c>
       <c r="G17" t="s">
         <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA7A887-F73D-45B2-80EC-A62F5972D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E469D-5C98-4F0A-BB95-E715F61D4054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="119">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -338,9 +338,6 @@
     <t xml:space="preserve">Modifying Storm </t>
   </si>
   <si>
-    <t>Diff testing</t>
-  </si>
-  <si>
     <t>Metamorphic testing/Ying Yang</t>
   </si>
   <si>
@@ -411,6 +408,12 @@
   </si>
   <si>
     <t>debugging OOM Killer bug, rerunning tests, writing a bit</t>
+  </si>
+  <si>
+    <t>updating notes, Rereading papers about meta and diff testing</t>
+  </si>
+  <si>
+    <t>Diff testing, running tests</t>
   </si>
 </sst>
 </file>
@@ -980,40 +983,40 @@
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>409</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,6 +1133,9 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="21">
@@ -2316,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,7 +2784,7 @@
       </c>
       <c r="E18">
         <f>Sheet2!C17</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <f>SUM($D$3:D18)</f>
@@ -2786,10 +2792,10 @@
       </c>
       <c r="G18">
         <f>SUM($E$3:E18)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2813,10 +2819,10 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2840,10 +2846,10 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2867,10 +2873,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2894,10 +2900,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2921,7 +2927,10 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2945,7 +2954,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2972,7 +2981,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2999,10 +3008,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3026,7 +3035,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3053,10 +3062,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3080,7 +3089,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3108,7 +3117,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3117,7 +3126,7 @@
       </c>
       <c r="B32">
         <f>E31-F18</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3149,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,13 +3695,13 @@
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
         <v>98</v>
-      </c>
-      <c r="H14" t="s">
-        <v>99</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -3711,13 +3720,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
         <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" t="s">
-        <v>103</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$32, "Operatie", "")</f>
@@ -3756,19 +3765,19 @@
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
         <v>105</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>107</v>
       </c>
-      <c r="H16" t="s">
-        <v>108</v>
-      </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -3783,22 +3792,25 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <f>9+5+10+9+9</f>
-        <v>42</v>
+        <f>9+5+10+9+9+2</f>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
         <v>114</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>115</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>116</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>117</v>
       </c>
       <c r="K17" t="s">
@@ -3930,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -3981,16 +3993,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4009,25 +4021,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E469D-5C98-4F0A-BB95-E715F61D4054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD99DF7-E92B-420F-A5FA-88DF551D516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Diff testing, running tests</t>
+  </si>
+  <si>
+    <t>starting coding at metaporphic testing, finding out which functions are available, implementing some metaporphic relations</t>
   </si>
 </sst>
 </file>
@@ -986,37 +989,37 @@
                   <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>411</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2814,7 @@
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
@@ -2819,7 +2822,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
@@ -2846,7 +2849,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H20" t="s">
         <v>93</v>
@@ -2873,7 +2876,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H21" t="s">
         <v>94</v>
@@ -2900,7 +2903,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H22" t="s">
         <v>108</v>
@@ -2927,7 +2930,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -2954,7 +2957,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2981,7 +2984,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H26" t="s">
         <v>96</v>
@@ -3035,7 +3038,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3062,7 +3065,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H28" t="s">
         <v>112</v>
@@ -3089,7 +3092,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3125,8 +3128,8 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <f>E31-F18</f>
-        <v>44</v>
+        <f>E31-F19</f>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3158,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,7 +3795,7 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <f>9+5+10+9+9+2</f>
+        <f>9+5+10+9+9+2+0</f>
         <v>44</v>
       </c>
       <c r="D17" t="s">
@@ -3826,8 +3829,11 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <f>0</f>
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD99DF7-E92B-420F-A5FA-88DF551D516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C739BD4-72B8-4AD4-9734-F916EB2EA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -989,37 +989,37 @@
                   <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>420</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H20" t="s">
         <v>93</v>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H21" t="s">
         <v>94</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H22" t="s">
         <v>108</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H26" t="s">
         <v>96</v>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H28" t="s">
         <v>112</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B32">
         <f>E31-F19</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,11 +3829,15 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <f>9</f>
-        <v>9</v>
+        <f>9+3</f>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
+      </c>
+      <c r="E18" t="str">
+        <f>_xlfn.CONCAT(IF(E32, "feestdag, ", ""), "brainstorm about metamorphic relations, implementing some")</f>
+        <v>feestdag, brainstorm about metamorphic relations, implementing some</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C739BD4-72B8-4AD4-9734-F916EB2EA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97607765-88EA-42D3-BB0A-75692D25776B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="122">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>starting coding at metaporphic testing, finding out which functions are available, implementing some metaporphic relations</t>
+  </si>
+  <si>
+    <t>coding more meta relations, debugging meta relations, restarting crashed diff, restarting STROM, filtering seed files that cause crashes</t>
+  </si>
+  <si>
+    <t>Practicing presentation, updating planning</t>
   </si>
 </sst>
 </file>
@@ -989,37 +995,37 @@
                   <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>423</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,7 +2332,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,7 +2820,7 @@
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
@@ -2822,7 +2828,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
@@ -2849,7 +2855,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H20" t="s">
         <v>93</v>
@@ -2876,7 +2882,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H21" t="s">
         <v>94</v>
@@ -2903,7 +2909,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H22" t="s">
         <v>108</v>
@@ -2930,7 +2936,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -2957,7 +2963,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2984,7 +2990,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3011,7 +3017,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H26" t="s">
         <v>96</v>
@@ -3038,7 +3044,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3065,7 +3071,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H28" t="s">
         <v>112</v>
@@ -3092,7 +3098,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3120,7 +3126,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,7 +3135,7 @@
       </c>
       <c r="B32">
         <f>E31-F19</f>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3162,7 +3168,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,8 +3835,8 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <f>9+3</f>
-        <v>12</v>
+        <f>9+3+9</f>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -3838,6 +3844,12 @@
       <c r="E18" t="str">
         <f>_xlfn.CONCAT(IF(E32, "feestdag, ", ""), "brainstorm about metamorphic relations, implementing some")</f>
         <v>feestdag, brainstorm about metamorphic relations, implementing some</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97607765-88EA-42D3-BB0A-75692D25776B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6BE9A2-BB1C-4CCD-83E8-51353D78A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
     <t>coding more meta relations, debugging meta relations, restarting crashed diff, restarting STROM, filtering seed files that cause crashes</t>
   </si>
   <si>
-    <t>Practicing presentation, updating planning</t>
+    <t>Practicing presentation, updating planning, extending diff testing to solve() instead of solveAll() only, setting error filter for diff testing</t>
   </si>
 </sst>
 </file>
@@ -995,37 +995,37 @@
                   <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>432</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H20" t="s">
         <v>93</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H21" t="s">
         <v>94</v>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H22" t="s">
         <v>108</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H26" t="s">
         <v>96</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H28" t="s">
         <v>112</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B32">
         <f>E31-F19</f>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,8 +3835,8 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <f>9+3+9</f>
-        <v>21</v>
+        <f>9+3+9+9</f>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6BE9A2-BB1C-4CCD-83E8-51353D78A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70AD40-B736-4897-8AAB-194C76F61727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>Practicing presentation, updating planning, extending diff testing to solve() instead of solveAll() only, setting error filter for diff testing</t>
+  </si>
+  <si>
+    <t>Prepping presentation, presentation, looking at the first outputs of diffv1, running diffv2, changing some diff filters</t>
   </si>
 </sst>
 </file>
@@ -995,37 +998,37 @@
                   <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>441</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2820,7 +2823,7 @@
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
@@ -2828,7 +2831,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
@@ -2855,7 +2858,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H20" t="s">
         <v>93</v>
@@ -2882,7 +2885,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H21" t="s">
         <v>94</v>
@@ -2909,7 +2912,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H22" t="s">
         <v>108</v>
@@ -2936,7 +2939,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -2963,7 +2966,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2990,7 +2993,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3017,7 +3020,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H26" t="s">
         <v>96</v>
@@ -3044,7 +3047,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3071,7 +3074,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H28" t="s">
         <v>112</v>
@@ -3098,7 +3101,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3126,7 +3129,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3135,7 +3138,7 @@
       </c>
       <c r="B32">
         <f>E31-F19</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3167,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,8 +3838,8 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <f>9+3+9+9</f>
-        <v>30</v>
+        <f>9+3+9+9+6</f>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -3850,6 +3853,9 @@
       </c>
       <c r="G18" t="s">
         <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70AD40-B736-4897-8AAB-194C76F61727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B047DCC7-626A-4D6C-A4A4-3A708EBEF016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Prepping presentation, presentation, looking at the first outputs of diffv1, running diffv2, changing some diff filters</t>
+  </si>
+  <si>
+    <t>writing about diff testing, getting some values to put in text, prepping thesis meeting</t>
   </si>
 </sst>
 </file>
@@ -998,37 +1001,37 @@
                   <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>447</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,7 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2823,7 +2826,7 @@
       </c>
       <c r="E19">
         <f>Sheet2!C18</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19">
         <f>SUM($D$3:D19)</f>
@@ -2831,7 +2834,7 @@
       </c>
       <c r="G19">
         <f>SUM($E$3:E19)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
@@ -2858,7 +2861,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H20" t="s">
         <v>93</v>
@@ -2885,7 +2888,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H21" t="s">
         <v>94</v>
@@ -2912,7 +2915,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H22" t="s">
         <v>108</v>
@@ -2939,7 +2942,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -2966,7 +2969,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2993,7 +2996,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3020,7 +3023,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H26" t="s">
         <v>96</v>
@@ -3047,7 +3050,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3074,7 +3077,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H28" t="s">
         <v>112</v>
@@ -3101,7 +3104,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3129,7 +3132,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B32">
         <f>E31-F19</f>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3170,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3838,8 +3841,8 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <f>9+3+9+9+6</f>
-        <v>36</v>
+        <f>9+3+9+9+6+3</f>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -3856,6 +3859,9 @@
       </c>
       <c r="H18" t="s">
         <v>122</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B047DCC7-626A-4D6C-A4A4-3A708EBEF016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA2451-A524-410E-A7D8-AE1DFBC448B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13725" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -338,9 +338,6 @@
     <t xml:space="preserve">Modifying Storm </t>
   </si>
   <si>
-    <t>Metamorphic testing/Ying Yang</t>
-  </si>
-  <si>
     <t>deobfuscator</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
     <t>updating notes, Rereading papers about meta and diff testing</t>
   </si>
   <si>
-    <t>Diff testing, running tests</t>
-  </si>
-  <si>
     <t>starting coding at metaporphic testing, finding out which functions are available, implementing some metaporphic relations</t>
   </si>
   <si>
@@ -429,6 +423,18 @@
   </si>
   <si>
     <t>writing about diff testing, getting some values to put in text, prepping thesis meeting</t>
+  </si>
+  <si>
+    <t>prepping thesis meeting, thesis meeting by mail, filtering out pickles that slipped into the seeds, modif diff, running meta, reproducing bugs</t>
+  </si>
+  <si>
+    <t>Metamorphic testing</t>
+  </si>
+  <si>
+    <t>Diff testing, Metamorphic testing</t>
+  </si>
+  <si>
+    <t>running tests, reproducing bugs</t>
   </si>
 </sst>
 </file>
@@ -1004,34 +1010,34 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>450</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,7 +2344,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,7 +2816,7 @@
         <v>411</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2837,7 +2843,7 @@
         <v>450</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2853,7 +2859,7 @@
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
@@ -2861,10 +2867,10 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,10 +2894,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,10 +2921,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2942,10 +2948,10 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,7 +2975,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2996,7 +3002,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3023,10 +3029,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3050,7 +3056,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3077,10 +3083,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,7 +3110,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3132,7 +3138,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3140,8 +3146,8 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <f>E31-F19</f>
-        <v>48</v>
+        <f>E31-F20</f>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3173,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,13 +3716,13 @@
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
         <v>97</v>
-      </c>
-      <c r="H14" t="s">
-        <v>98</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -3735,13 +3741,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" t="s">
-        <v>102</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$32, "Operatie", "")</f>
@@ -3780,19 +3786,19 @@
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
         <v>104</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>105</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" t="s">
-        <v>107</v>
-      </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -3811,22 +3817,22 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>114</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>115</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>116</v>
-      </c>
-      <c r="I17" t="s">
-        <v>117</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -3841,27 +3847,27 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <f>9+3+9+9+6+3</f>
+        <f>9+3+9+9+6+3+0</f>
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.CONCAT(IF(E32, "feestdag, ", ""), "brainstorm about metamorphic relations, implementing some")</f>
         <v>feestdag, brainstorm about metamorphic relations, implementing some</v>
       </c>
       <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" t="s">
         <v>120</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>121</v>
-      </c>
-      <c r="H18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" t="s">
-        <v>123</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>
@@ -3876,8 +3882,11 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <f>0</f>
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -3976,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4027,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4055,25 +4064,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA2451-A524-410E-A7D8-AE1DFBC448B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCED1F1-0406-4B58-A562-7C9363AA5278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13725" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>running tests, reproducing bugs</t>
+  </si>
+  <si>
+    <t>reproducing bugs, trying to install minizing:ortools, seminar</t>
   </si>
 </sst>
 </file>
@@ -1010,34 +1013,34 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>459</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2343,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2859,7 +2862,7 @@
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
@@ -2867,7 +2870,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H20" t="s">
         <v>125</v>
@@ -2894,7 +2897,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H21" t="s">
         <v>93</v>
@@ -2921,7 +2924,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H22" t="s">
         <v>107</v>
@@ -2948,7 +2951,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H23" t="s">
         <v>107</v>
@@ -2975,7 +2978,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3002,7 +3005,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3029,7 +3032,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
@@ -3056,7 +3059,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3083,7 +3086,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -3110,7 +3113,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,7 +3150,7 @@
       </c>
       <c r="B32">
         <f>E31-F20</f>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3179,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,11 +3885,14 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <f>9</f>
-        <v>9</v>
+        <f>9+5</f>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCED1F1-0406-4B58-A562-7C9363AA5278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A393130E-5136-4C79-BBD8-CC99947D74CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>reproducing bugs, trying to install minizing:ortools, seminar</t>
+  </si>
+  <si>
+    <t>reproducing bugs, writing own MUS (both in simplification and isolation techniques), installing minizinc:ortools op w10 (jezus wat een miserie)</t>
+  </si>
+  <si>
+    <t>installing minizinc:ortools on ubuntu</t>
   </si>
 </sst>
 </file>
@@ -1013,34 +1019,34 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>464</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,7 +2868,7 @@
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
@@ -2870,7 +2876,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H20" t="s">
         <v>125</v>
@@ -2897,7 +2903,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H21" t="s">
         <v>93</v>
@@ -2924,7 +2930,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H22" t="s">
         <v>107</v>
@@ -2951,7 +2957,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H23" t="s">
         <v>107</v>
@@ -2978,7 +2984,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3005,7 +3011,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3032,7 +3038,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
@@ -3059,7 +3065,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3086,7 +3092,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -3113,7 +3119,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3141,7 +3147,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3150,7 +3156,7 @@
       </c>
       <c r="B32">
         <f>E31-F20</f>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3183,7 +3189,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,14 +3891,20 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <f>9+5</f>
-        <v>14</v>
+        <f>9+5+9</f>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A393130E-5136-4C79-BBD8-CC99947D74CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20494CA5-1700-4CE9-A9DD-611F3E0F2AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
     <t>reproducing bugs, writing own MUS (both in simplification and isolation techniques), installing minizinc:ortools op w10 (jezus wat een miserie)</t>
   </si>
   <si>
-    <t>installing minizinc:ortools on ubuntu</t>
+    <t>installing minizinc:ortools on ubuntu (yikes the install errors), reproducing bugs, rerunning with new solver</t>
   </si>
 </sst>
 </file>
@@ -1019,34 +1019,34 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>473</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H20" t="s">
         <v>125</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H21" t="s">
         <v>93</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H22" t="s">
         <v>107</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H23" t="s">
         <v>107</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B32">
         <f>E31-F20</f>
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3188,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,8 +3891,8 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <f>9+5+9</f>
-        <v>23</v>
+        <f>9+5+9+9</f>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20494CA5-1700-4CE9-A9DD-611F3E0F2AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3510B7BA-2D7C-4D3D-BA2E-F01ACCC6E5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>installing minizinc:ortools on ubuntu (yikes the install errors), reproducing bugs, rerunning with new solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reproducing bugs, writing about metamorphic testing</t>
   </si>
 </sst>
 </file>
@@ -1019,34 +1022,34 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>482</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2868,7 +2871,7 @@
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
@@ -2876,7 +2879,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H20" t="s">
         <v>125</v>
@@ -2903,7 +2906,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H21" t="s">
         <v>93</v>
@@ -2930,7 +2933,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H22" t="s">
         <v>107</v>
@@ -2957,7 +2960,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H23" t="s">
         <v>107</v>
@@ -2984,7 +2987,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3011,7 +3014,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3038,7 +3041,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
@@ -3065,7 +3068,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -3119,7 +3122,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3147,7 +3150,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,7 +3159,7 @@
       </c>
       <c r="B32">
         <f>E31-F20</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3188,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3891,8 +3894,8 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <f>9+5+9+9</f>
-        <v>32</v>
+        <f>9+5+9+9+5</f>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -3905,6 +3908,9 @@
       </c>
       <c r="G19" t="s">
         <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3510B7BA-2D7C-4D3D-BA2E-F01ACCC6E5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D68B92-0F69-4750-A58A-05713B563F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve"> reproducing bugs, writing about metamorphic testing</t>
+  </si>
+  <si>
+    <t>submitting obvious bugs</t>
   </si>
 </sst>
 </file>
@@ -1022,34 +1025,34 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>487</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="E20">
         <f>Sheet2!C19</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <f>SUM($D$3:D20)</f>
@@ -2879,7 +2882,7 @@
       </c>
       <c r="G20">
         <f>SUM($E$3:E20)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H20" t="s">
         <v>125</v>
@@ -2906,7 +2909,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H21" t="s">
         <v>93</v>
@@ -2933,7 +2936,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H22" t="s">
         <v>107</v>
@@ -2960,7 +2963,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H23" t="s">
         <v>107</v>
@@ -2987,7 +2990,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3014,7 +3017,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3041,7 +3044,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
@@ -3068,7 +3071,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3095,7 +3098,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -3122,7 +3125,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3159,7 +3162,7 @@
       </c>
       <c r="B32">
         <f>E31-F20</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3192,7 +3195,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,8 +3897,8 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <f>9+5+9+9+5</f>
-        <v>37</v>
+        <f>9+5+9+9+5+1+1</f>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -3911,6 +3914,9 @@
       </c>
       <c r="H19" t="s">
         <v>129</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -3991,6 +3997,9 @@
       <c r="C24">
         <f>0</f>
         <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D68B92-0F69-4750-A58A-05713B563F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B1951-3528-484B-BDC7-F91F57861061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -449,7 +449,13 @@
     <t xml:space="preserve"> reproducing bugs, writing about metamorphic testing</t>
   </si>
   <si>
-    <t>submitting obvious bugs</t>
+    <t>prepping thesis meeting</t>
+  </si>
+  <si>
+    <t>submitting some more obvious bugs</t>
+  </si>
+  <si>
+    <t>creating excel for labeling bugs</t>
   </si>
 </sst>
 </file>
@@ -3195,7 +3201,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,7 +3922,10 @@
         <v>129</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -3933,6 +3942,9 @@
       <c r="C20">
         <f>0</f>
         <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B1951-3528-484B-BDC7-F91F57861061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A9D14B-9357-4C6C-8294-58138744AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="29655" yWindow="3375" windowWidth="15975" windowHeight="9870" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -338,9 +338,6 @@
     <t xml:space="preserve">Modifying Storm </t>
   </si>
   <si>
-    <t>deobfuscator</t>
-  </si>
-  <si>
     <t>Rewriting STORM to fit CPMpy</t>
   </si>
   <si>
@@ -449,13 +446,16 @@
     <t xml:space="preserve"> reproducing bugs, writing about metamorphic testing</t>
   </si>
   <si>
-    <t>prepping thesis meeting</t>
-  </si>
-  <si>
     <t>submitting some more obvious bugs</t>
   </si>
   <si>
     <t>creating excel for labeling bugs</t>
+  </si>
+  <si>
+    <t>prepping thesis meeting, thesis meeting by mail, submitting + labeling bugs, running fuzzers, reproducing/minimizing newlly found bugs</t>
+  </si>
+  <si>
+    <t>finishing reproducing diff bugs, reporting new ones</t>
   </si>
 </sst>
 </file>
@@ -1034,31 +1034,31 @@
                   <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>489</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,7 +2365,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,7 +2837,7 @@
         <v>411</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2864,7 +2864,7 @@
         <v>450</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>489</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E21">
         <f>Sheet2!C20</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
@@ -2915,10 +2915,10 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2942,10 +2942,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,10 +2969,10 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3050,10 +3050,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3104,10 +3104,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3167,8 +3167,8 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <f>E31-F20</f>
-        <v>52</v>
+        <f>E31-F21</f>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3201,7 +3201,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,13 +3737,13 @@
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
         <v>96</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -3762,13 +3762,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
         <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$32, "Operatie", "")</f>
@@ -3807,19 +3807,19 @@
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
         <v>103</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>104</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>105</v>
       </c>
-      <c r="H16" t="s">
-        <v>106</v>
-      </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -3838,22 +3838,22 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
         <v>112</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>113</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>114</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>115</v>
-      </c>
-      <c r="I17" t="s">
-        <v>116</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -3872,23 +3872,23 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.CONCAT(IF(E32, "feestdag, ", ""), "brainstorm about metamorphic relations, implementing some")</f>
         <v>feestdag, brainstorm about metamorphic relations, implementing some</v>
       </c>
       <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>119</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>120</v>
-      </c>
-      <c r="I18" t="s">
-        <v>121</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>
@@ -3907,25 +3907,25 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
         <v>126</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>127</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>128</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>129</v>
       </c>
-      <c r="I19" t="s">
-        <v>131</v>
-      </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -3940,11 +3940,14 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <f>0</f>
-        <v>0</v>
+        <f>8+7</f>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -4011,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
@@ -4030,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4081,16 +4084,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4109,25 +4112,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A9D14B-9357-4C6C-8294-58138744AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B777F87-9E05-4379-A29A-AA254542F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="3375" windowWidth="15975" windowHeight="9870" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>finishing reproducing diff bugs, reporting new ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproducing meta crashes, Reproducing STORM random errors and crashes, building tools to auto reproduces STORM's soundsness bugs </t>
   </si>
 </sst>
 </file>
@@ -1034,31 +1037,31 @@
                   <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>504</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="E21">
         <f>Sheet2!C20</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
@@ -2915,7 +2918,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H21" t="s">
         <v>106</v>
@@ -2942,7 +2945,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H22" t="s">
         <v>106</v>
@@ -2969,7 +2972,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H23" t="s">
         <v>106</v>
@@ -2996,7 +2999,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3023,7 +3026,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3050,7 +3053,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3077,7 +3080,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3104,7 +3107,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H28" t="s">
         <v>110</v>
@@ -3131,7 +3134,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3159,7 +3162,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3168,7 +3171,7 @@
       </c>
       <c r="B32">
         <f>E31-F21</f>
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3201,7 +3204,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,14 +3943,17 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <f>8+7</f>
-        <v>15</v>
+        <f>8+7+9</f>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
       </c>
       <c r="E20" t="s">
         <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B777F87-9E05-4379-A29A-AA254542F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A7EB43-62D6-4DF9-ADD7-70E974DF2E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="135">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reproducing meta crashes, Reproducing STORM random errors and crashes, building tools to auto reproduces STORM's soundsness bugs </t>
+  </si>
+  <si>
+    <t>Reproducing the rest of the STORM bugs, preping future bugreports (currently unable to absolutly minimize), checking v0.9.10 fixes, writing question about fix</t>
   </si>
 </sst>
 </file>
@@ -1037,31 +1040,31 @@
                   <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>513</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2910,7 +2913,7 @@
       </c>
       <c r="E21">
         <f>Sheet2!C20</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
@@ -2918,7 +2921,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H21" t="s">
         <v>106</v>
@@ -2945,7 +2948,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H22" t="s">
         <v>106</v>
@@ -2972,7 +2975,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H23" t="s">
         <v>106</v>
@@ -2999,7 +3002,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3026,7 +3029,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3053,7 +3056,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3080,7 +3083,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3107,7 +3110,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H28" t="s">
         <v>110</v>
@@ -3134,7 +3137,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3171,7 +3174,7 @@
       </c>
       <c r="B32">
         <f>E31-F21</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3943,8 +3946,8 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <f>8+7+9</f>
-        <v>24</v>
+        <f>8+7+9+9</f>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -3954,6 +3957,9 @@
       </c>
       <c r="F20" t="s">
         <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A7EB43-62D6-4DF9-ADD7-70E974DF2E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC511F-5B29-47AE-A204-99957569B6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Reproducing the rest of the STORM bugs, preping future bugreports (currently unable to absolutly minimize), checking v0.9.10 fixes, writing question about fix</t>
+  </si>
+  <si>
+    <t>Reading cpmpy issues to prevent duplicates, submitting new report, starting with reproducing meta bugs</t>
   </si>
 </sst>
 </file>
@@ -1040,31 +1043,31 @@
                   <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>522</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,7 +2916,7 @@
       </c>
       <c r="E21">
         <f>Sheet2!C20</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
@@ -2921,7 +2924,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H21" t="s">
         <v>106</v>
@@ -2948,7 +2951,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H22" t="s">
         <v>106</v>
@@ -2975,7 +2978,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H23" t="s">
         <v>106</v>
@@ -3002,7 +3005,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3029,7 +3032,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3056,7 +3059,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3083,7 +3086,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3110,7 +3113,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H28" t="s">
         <v>110</v>
@@ -3137,7 +3140,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3165,7 +3168,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3174,7 +3177,7 @@
       </c>
       <c r="B32">
         <f>E31-F21</f>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3207,7 +3210,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,8 +3949,8 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <f>8+7+9+9</f>
-        <v>33</v>
+        <f>8+7+9+9+8</f>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -3960,6 +3963,9 @@
       </c>
       <c r="G20" t="s">
         <v>134</v>
+      </c>
+      <c r="H20" t="s">
+        <v>135</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC511F-5B29-47AE-A204-99957569B6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04FAC5C-1CD4-4E7F-9A90-A1DE0DA884CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -465,6 +465,15 @@
   </si>
   <si>
     <t>Reading cpmpy issues to prevent duplicates, submitting new report, starting with reproducing meta bugs</t>
+  </si>
+  <si>
+    <t>reporting a bug</t>
+  </si>
+  <si>
+    <t>reproducing metabugs</t>
+  </si>
+  <si>
+    <t>looking for a specific ==0==0 bug amoungst the meta bugs</t>
   </si>
 </sst>
 </file>
@@ -1043,31 +1052,31 @@
                   <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2373,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,7 +2925,7 @@
       </c>
       <c r="E21">
         <f>Sheet2!C20</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <f>SUM($D$3:D21)</f>
@@ -2924,7 +2933,7 @@
       </c>
       <c r="G21">
         <f>SUM($E$3:E21)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H21" t="s">
         <v>106</v>
@@ -2951,7 +2960,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H22" t="s">
         <v>106</v>
@@ -2978,7 +2987,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H23" t="s">
         <v>106</v>
@@ -3005,7 +3014,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3032,7 +3041,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3059,7 +3068,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3086,7 +3095,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3113,7 +3122,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H28" t="s">
         <v>110</v>
@@ -3140,7 +3149,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3168,7 +3177,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3176,8 +3185,8 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <f>E31-F21</f>
-        <v>58</v>
+        <f>E31-F22</f>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3209,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,8 +3958,8 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <f>8+7+9+9+8</f>
-        <v>41</v>
+        <f>8+7+9+9+8+1+1</f>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -3966,6 +3975,12 @@
       </c>
       <c r="H20" t="s">
         <v>135</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -3982,6 +3997,9 @@
       <c r="C21">
         <f>0</f>
         <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
       </c>
       <c r="K21" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04FAC5C-1CD4-4E7F-9A90-A1DE0DA884CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1617D9C-5D60-437A-8AF8-0DC195BE9BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="140">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -473,7 +473,10 @@
     <t>reproducing metabugs</t>
   </si>
   <si>
-    <t>looking for a specific ==0==0 bug amoungst the meta bugs</t>
+    <t xml:space="preserve">looking for a specific ==0==0 bug amoungst the meta bugs, seminars Academic Writing + Intellectual Integrity and Plagiarism </t>
+  </si>
+  <si>
+    <t>reproducing the last of the meta bugs (yeey), testing all ways of minimizing to get best results on the wrongly (un)sat bugs</t>
   </si>
 </sst>
 </file>
@@ -1055,28 +1058,28 @@
                   <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>532</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>532</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>532</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>532</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>532</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>532</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>532</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>532</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,7 +2955,7 @@
       </c>
       <c r="E22">
         <f>Sheet2!C21</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
@@ -2960,7 +2963,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H22" t="s">
         <v>106</v>
@@ -2987,7 +2990,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H23" t="s">
         <v>106</v>
@@ -3014,7 +3017,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3041,7 +3044,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3068,7 +3071,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3095,7 +3098,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3122,7 +3125,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H28" t="s">
         <v>110</v>
@@ -3149,7 +3152,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3186,7 +3189,7 @@
       </c>
       <c r="B32">
         <f>E31-F22</f>
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3218,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,11 +3998,14 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <f>0</f>
-        <v>0</v>
+        <f>7+7</f>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
       </c>
       <c r="K21" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1617D9C-5D60-437A-8AF8-0DC195BE9BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6195F62-DC28-4917-9C91-D2B3BC90B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="141">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -476,7 +476,10 @@
     <t xml:space="preserve">looking for a specific ==0==0 bug amoungst the meta bugs, seminars Academic Writing + Intellectual Integrity and Plagiarism </t>
   </si>
   <si>
-    <t>reproducing the last of the meta bugs (yeey), testing all ways of minimizing to get best results on the wrongly (un)sat bugs</t>
+    <t>reproducing the last of the meta bugs (yeey), testing all ways of minimizing to get best results on the wrongly (un)sat bugs, trying to help with bug 164</t>
+  </si>
+  <si>
+    <t>prepping thesis meeting, thesis meeting, submitting last bugs with Ignace's advice</t>
   </si>
 </sst>
 </file>
@@ -1058,28 +1061,28 @@
                   <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>546</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>546</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>546</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>546</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>546</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>546</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>546</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>546</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="E22">
         <f>Sheet2!C21</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
@@ -2963,7 +2966,7 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H22" t="s">
         <v>106</v>
@@ -2990,7 +2993,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H23" t="s">
         <v>106</v>
@@ -3017,7 +3020,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3044,7 +3047,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3071,7 +3074,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3098,7 +3101,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3125,7 +3128,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H28" t="s">
         <v>110</v>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3180,7 +3183,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3189,7 +3192,7 @@
       </c>
       <c r="B32">
         <f>E31-F22</f>
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3222,7 +3225,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,14 +4001,17 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <f>7+7</f>
-        <v>14</v>
+        <f>7+8+9</f>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>138</v>
       </c>
       <c r="E21" t="s">
         <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
       </c>
       <c r="K21" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6195F62-DC28-4917-9C91-D2B3BC90B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7C0D9-EEC0-4C15-8AD0-5341A32D2F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="144">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -350,9 +350,6 @@
     <t>Finding the DTAI Toledo community, planning, watching Milestone M1</t>
   </si>
   <si>
-    <t>SUBMISSION DAY</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASK PERMISSION </t>
   </si>
   <si>
@@ -480,6 +477,18 @@
   </si>
   <si>
     <t>prepping thesis meeting, thesis meeting, submitting last bugs with Ignace's advice</t>
+  </si>
+  <si>
+    <t>catching up, looking at the bug fixes</t>
+  </si>
+  <si>
+    <t>SUBMISSION DAY 2PM</t>
+  </si>
+  <si>
+    <t>academisch secretaris luc.vaneycken@kuleuven.be</t>
+  </si>
+  <si>
+    <t>DEADLINE academisch secretaris</t>
   </si>
 </sst>
 </file>
@@ -536,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -548,6 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,28 +1071,28 @@
                   <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>556</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>556</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>556</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>556</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>556</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>556</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>556</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>556</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2871,7 @@
         <v>411</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,7 +2898,7 @@
         <v>450</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,7 +2925,7 @@
         <v>489</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2942,7 +2952,7 @@
         <v>532</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2958,7 +2968,7 @@
       </c>
       <c r="E22">
         <f>Sheet2!C21</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22">
         <f>SUM($D$3:D22)</f>
@@ -2966,10 +2976,10 @@
       </c>
       <c r="G22">
         <f>SUM($E$3:E22)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2993,10 +3003,10 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3020,7 +3030,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3047,7 +3057,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3074,7 +3084,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3101,7 +3111,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3128,10 +3138,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3155,7 +3165,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3183,7 +3193,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3191,8 +3201,8 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <f>E31-F22</f>
-        <v>49</v>
+        <f>E31-F23</f>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3224,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3786,17 +3796,17 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
         <v>99</v>
       </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" t="s">
-        <v>100</v>
-      </c>
       <c r="G15" t="str">
-        <f>IF($E$32, "Operatie", "")</f>
-        <v>Operatie</v>
+        <f>IF($E$32, "hospital visit", "")</f>
+        <v>hospital visit</v>
       </c>
       <c r="H15" t="str">
         <f>IF($E$32, "Revalidatie", "")</f>
@@ -3831,19 +3841,19 @@
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
         <v>102</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>103</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>104</v>
       </c>
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -3862,22 +3872,22 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" t="s">
         <v>111</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>112</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>113</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>114</v>
-      </c>
-      <c r="I17" t="s">
-        <v>115</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -3896,23 +3906,23 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.CONCAT(IF(E32, "feestdag, ", ""), "brainstorm about metamorphic relations, implementing some")</f>
         <v>feestdag, brainstorm about metamorphic relations, implementing some</v>
       </c>
       <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
         <v>117</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>118</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>119</v>
-      </c>
-      <c r="I18" t="s">
-        <v>120</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>
@@ -3931,25 +3941,25 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>126</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>127</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>128</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>129</v>
-      </c>
-      <c r="J19" t="s">
-        <v>130</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -3968,25 +3978,25 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
         <v>131</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>132</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>133</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>134</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>135</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>136</v>
-      </c>
-      <c r="J20" t="s">
-        <v>137</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -4001,16 +4011,31 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <f>7+8+9</f>
-        <v>24</v>
+        <f>7+8+9+0+0+0+1</f>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" t="s">
         <v>138</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>139</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="str">
+        <f>IF($E$32, "catch up ing. proclamation", "")</f>
+        <v>catch up ing. proclamation</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF($E$32, "sick", "")</f>
+        <v>sick</v>
+      </c>
+      <c r="I21" t="str">
+        <f>IF($E$32, "sick", "")</f>
+        <v>sick</v>
+      </c>
+      <c r="J21" t="s">
         <v>140</v>
       </c>
       <c r="K21" t="s">
@@ -4062,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
@@ -4081,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4131,17 +4156,20 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="D28" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4160,25 +4188,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7C0D9-EEC0-4C15-8AD0-5341A32D2F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671AB56-7466-41D6-949C-81602FE1B3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="146">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>DEADLINE academisch secretaris</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>finishing writing implmentation, writing about the results (running the fuzzer tests, preventing frequent reoccuring bugs, describing double not bug)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -557,7 +563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,25 +1079,25 @@
                   <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>557</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>557</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>557</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>557</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>557</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>557</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>557</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,7 +2404,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,7 +3000,7 @@
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
@@ -3003,7 +3008,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H23" t="s">
         <v>105</v>
@@ -3030,7 +3035,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3057,7 +3062,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3084,7 +3089,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3111,7 +3116,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3138,7 +3143,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3165,7 +3170,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3181,6 +3186,9 @@
       </c>
       <c r="D30">
         <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3193,7 +3201,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3202,7 +3210,7 @@
       </c>
       <c r="B32">
         <f>E31-F23</f>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3235,7 +3243,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4051,8 +4059,11 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <f>0</f>
-        <v>0</v>
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -4156,7 +4167,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" t="s">
         <v>142</v>
       </c>
       <c r="G28" t="s">

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671AB56-7466-41D6-949C-81602FE1B3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C49666-1E95-4C8B-BF90-44BE2EBAE6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="147">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -494,7 +494,10 @@
     <t>Poster</t>
   </si>
   <si>
-    <t>finishing writing implmentation, writing about the results (running the fuzzer tests, preventing frequent reoccuring bugs, describing double not bug)</t>
+    <t>finishing writing implmentation, writing about the results (running the fuzzer tests, preventing frequent reoccuring bugs, describing double not bug), helping with bug 165</t>
+  </si>
+  <si>
+    <t>Adding CPMpy example in intro, adding tables into LaTeX (… brr), writing about NegatedGlobal bug, adding image about CPMpy components</t>
   </si>
 </sst>
 </file>
@@ -1079,25 +1082,25 @@
                   <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>565</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>565</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>565</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>565</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>565</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>565</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>565</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,7 +2407,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +3003,7 @@
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H23" t="s">
         <v>105</v>
@@ -3035,7 +3038,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3062,7 +3065,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3089,7 +3092,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3116,7 +3119,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3143,7 +3146,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3170,7 +3173,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3201,7 +3204,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3210,7 +3213,7 @@
       </c>
       <c r="B32">
         <f>E31-F23</f>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -4059,11 +4062,14 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <f>8</f>
-        <v>8</v>
+        <f>9+9</f>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C49666-1E95-4C8B-BF90-44BE2EBAE6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2406C56-8600-4734-A7B6-998A7311F965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="147">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -497,7 +497,7 @@
     <t>finishing writing implmentation, writing about the results (running the fuzzer tests, preventing frequent reoccuring bugs, describing double not bug), helping with bug 165</t>
   </si>
   <si>
-    <t>Adding CPMpy example in intro, adding tables into LaTeX (… brr), writing about NegatedGlobal bug, adding image about CPMpy components</t>
+    <t>Adding CPMpy example in intro, adding tables into LaTeX (… brr), writing about NegatedGlobal bug, adding image about CPMpy components, helping with bugcatching</t>
   </si>
 </sst>
 </file>
@@ -3246,7 +3246,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2406C56-8600-4734-A7B6-998A7311F965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362086D0-D9CF-4B19-8D3A-F20C05312E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Adding CPMpy example in intro, adding tables into LaTeX (… brr), writing about NegatedGlobal bug, adding image about CPMpy components, helping with bugcatching</t>
+  </si>
+  <si>
+    <t>anwsering GitHub, Writing about the intressting bugs, checking if the original bug was the same as the reproduced/reported bug</t>
   </si>
 </sst>
 </file>
@@ -1082,25 +1085,25 @@
                   <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>575</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>575</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>575</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>575</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>575</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>575</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>575</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,7 +3006,7 @@
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
@@ -3011,7 +3014,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H23" t="s">
         <v>105</v>
@@ -3038,7 +3041,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3065,7 +3068,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3119,7 +3122,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3146,7 +3149,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3173,7 +3176,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,7 +3216,7 @@
       </c>
       <c r="B32">
         <f>E31-F23</f>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3246,7 +3249,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,14 +4065,17 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <f>9+9</f>
-        <v>18</v>
+        <f>9+9+9</f>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>145</v>
       </c>
       <c r="E22" t="s">
         <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362086D0-D9CF-4B19-8D3A-F20C05312E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3FAB7D-13E7-4367-AACE-12DE0CFF9D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>anwsering GitHub, Writing about the intressting bugs, checking if the original bug was the same as the reproduced/reported bug</t>
+  </si>
+  <si>
+    <t>Writiting, writing writing this tiem finishing the result chapter and adding an modus operandi to the intro</t>
   </si>
 </sst>
 </file>
@@ -3249,7 +3252,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,6 +4080,9 @@
       <c r="F22" t="s">
         <v>147</v>
       </c>
+      <c r="G22" t="s">
+        <v>148</v>
+      </c>
       <c r="K22" t="s">
         <v>26</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3FAB7D-13E7-4367-AACE-12DE0CFF9D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EF18F-7F43-47C2-8D60-31C6914353B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="150">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -504,6 +504,9 @@
   </si>
   <si>
     <t>Writiting, writing writing this tiem finishing the result chapter and adding an modus operandi to the intro</t>
+  </si>
+  <si>
+    <t>proofreading, processing todo's, fighting with LaTeX errors, reducing number of RQ</t>
   </si>
 </sst>
 </file>
@@ -1088,25 +1091,25 @@
                   <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>584</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>584</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>584</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>584</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>584</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>584</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>584</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
@@ -3017,7 +3020,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="H23" t="s">
         <v>105</v>
@@ -3044,7 +3047,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3071,7 +3074,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3098,7 +3101,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3125,7 +3128,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3210,7 +3213,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>584</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3219,7 +3222,7 @@
       </c>
       <c r="B32">
         <f>E31-F23</f>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3252,7 +3255,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,8 +4071,8 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <f>9+9+9</f>
-        <v>27</v>
+        <f>9+9+9+9+9</f>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>145</v>
@@ -4082,6 +4085,9 @@
       </c>
       <c r="G22" t="s">
         <v>148</v>
+      </c>
+      <c r="H22" t="s">
+        <v>149</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EF18F-7F43-47C2-8D60-31C6914353B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B9DCC-A88F-436E-BF24-FEDF7B1430D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -488,9 +488,6 @@
     <t>academisch secretaris luc.vaneycken@kuleuven.be</t>
   </si>
   <si>
-    <t>DEADLINE academisch secretaris</t>
-  </si>
-  <si>
     <t>Poster</t>
   </si>
   <si>
@@ -507,6 +504,15 @@
   </si>
   <si>
     <t>proofreading, processing todo's, fighting with LaTeX errors, reducing number of RQ</t>
+  </si>
+  <si>
+    <t>more proofreading</t>
+  </si>
+  <si>
+    <t>Writing and proofreading</t>
+  </si>
+  <si>
+    <t>weird DEADLINE academisch secretaris</t>
   </si>
 </sst>
 </file>
@@ -1091,25 +1097,25 @@
                   <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>602</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>602</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>602</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>602</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>602</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>602</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>602</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3018,7 @@
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
@@ -3020,10 +3026,10 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,7 +3053,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3074,7 +3080,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3101,7 +3107,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3128,7 +3134,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3155,7 +3161,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3182,7 +3188,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3200,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,7 +3219,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,7 +3228,7 @@
       </c>
       <c r="B32">
         <f>E31-F23</f>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3255,7 +3261,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,22 +4077,25 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <f>9+9+9+9+9</f>
-        <v>45</v>
+        <f>9+9+9+9+9+4</f>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
         <v>145</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>146</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>147</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>148</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>149</v>
       </c>
       <c r="K22" t="s">
@@ -4204,7 +4213,7 @@
         <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B9DCC-A88F-436E-BF24-FEDF7B1430D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C149F07C-EBEC-46F4-B4B4-48DD2651DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>weird DEADLINE academisch secretaris</t>
+  </si>
+  <si>
+    <t>replacing badly cropt image on front page, rereading guidelines_thesis.pdf, moving caption of tables</t>
   </si>
 </sst>
 </file>
@@ -3261,7 +3264,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,6 +4101,9 @@
       <c r="I22" t="s">
         <v>149</v>
       </c>
+      <c r="J22" t="s">
+        <v>152</v>
+      </c>
       <c r="K22" t="s">
         <v>26</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C149F07C-EBEC-46F4-B4B4-48DD2651DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFAA59F-B851-41EC-A6FC-D03FCBCF17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
     <t>weird DEADLINE academisch secretaris</t>
   </si>
   <si>
-    <t>replacing badly cropt image on front page, rereading guidelines_thesis.pdf, moving caption of tables</t>
+    <t>replacing badly cropt image on front page, rereading guidelines_thesis.pdf, moving caption of tables, add listings to some bug explanations</t>
   </si>
 </sst>
 </file>
@@ -1100,25 +1100,25 @@
                   <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>606</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>606</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>606</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>606</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>606</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>606</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>606</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,7 +2425,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E23">
         <f>Sheet2!C22</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <f>SUM($D$3:D23)</f>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G23">
         <f>SUM($E$3:E23)</f>
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H23" t="s">
         <v>150</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3230,8 +3230,8 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <f>E31-F23</f>
-        <v>64</v>
+        <f>E31-F24</f>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4080,8 +4080,8 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <f>9+9+9+9+9+4</f>
-        <v>49</v>
+        <f>9+9+9+9+9+4+4</f>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>144</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFAA59F-B851-41EC-A6FC-D03FCBCF17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4007048C-06BD-4789-88FA-B2AC6E94F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>replacing badly cropt image on front page, rereading guidelines_thesis.pdf, moving caption of tables, add listings to some bug explanations</t>
+  </si>
+  <si>
+    <t>prepping thesis meeting, proofreading last minute aditions to results chapter, outline of chapter conclusion</t>
   </si>
 </sst>
 </file>
@@ -3264,7 +3267,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,6 +4123,9 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
       <c r="K23" t="s">
         <v>26</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4007048C-06BD-4789-88FA-B2AC6E94F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0ACB0-712A-4B1B-9B3C-37C0065FD8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -518,7 +518,7 @@
     <t>replacing badly cropt image on front page, rereading guidelines_thesis.pdf, moving caption of tables, add listings to some bug explanations</t>
   </si>
   <si>
-    <t>prepping thesis meeting, proofreading last minute aditions to results chapter, outline of chapter conclusion</t>
+    <t>prepping thesis meeting, proofreading last minute aditions to results chapter, outline of chapter conclusion, moving RQ to intro instead of separat chapter, implmenenting thesis meeting changes</t>
   </si>
 </sst>
 </file>
@@ -1106,22 +1106,22 @@
                   <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>610</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>610</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>610</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>610</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>610</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>610</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B32">
         <f>E31-F24</f>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,8 +4120,8 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <f>0</f>
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>153</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0ACB0-712A-4B1B-9B3C-37C0065FD8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B90506-E75F-4F38-AA4F-B7AEAB3B3877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>prepping thesis meeting, proofreading last minute aditions to results chapter, outline of chapter conclusion, moving RQ to intro instead of separat chapter, implmenenting thesis meeting changes</t>
+  </si>
+  <si>
+    <t>writing conclusion chapter, writing preface, starting abstract, reading paper 74</t>
   </si>
 </sst>
 </file>
@@ -1106,22 +1109,22 @@
                   <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>619</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>619</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>619</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>619</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>619</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>619</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,7 +3054,7 @@
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
@@ -3059,7 +3062,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3086,7 +3089,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3113,7 +3116,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3140,7 +3143,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3167,7 +3170,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3194,7 +3197,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3225,7 +3228,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,7 +3237,7 @@
       </c>
       <c r="B32">
         <f>E31-F24</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3267,7 +3270,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,11 +4123,14 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <f>9</f>
-        <v>9</v>
+        <f>9+6</f>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>153</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B90506-E75F-4F38-AA4F-B7AEAB3B3877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEFFC52-6308-46AA-B138-AA3A2B353CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
     <t>prepping thesis meeting, proofreading last minute aditions to results chapter, outline of chapter conclusion, moving RQ to intro instead of separat chapter, implmenenting thesis meeting changes</t>
   </si>
   <si>
-    <t>writing conclusion chapter, writing preface, starting abstract, reading paper 74</t>
+    <t>writing conclusion chapter, writing preface, starting abstract, reading paper 74, finishing abstract</t>
   </si>
 </sst>
 </file>
@@ -1109,22 +1109,22 @@
                   <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>625</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>625</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>625</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>625</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>625</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>625</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B32">
         <f>E31-F24</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3269,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,8 +4123,8 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <f>9+6</f>
-        <v>15</v>
+        <f>9+7</f>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>153</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEFFC52-6308-46AA-B138-AA3A2B353CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5C1AE-5DE2-4405-8DE2-EE5F103F62AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="156">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -521,7 +521,10 @@
     <t>prepping thesis meeting, proofreading last minute aditions to results chapter, outline of chapter conclusion, moving RQ to intro instead of separat chapter, implmenenting thesis meeting changes</t>
   </si>
   <si>
-    <t>writing conclusion chapter, writing preface, starting abstract, reading paper 74, finishing abstract</t>
+    <t>writing conclusion chapter, writing preface, starting abstract, reading paper 74, finishing abstract, added keywords, seminar</t>
+  </si>
+  <si>
+    <t>more proofreading, advertizing, finding people to proofread text</t>
   </si>
 </sst>
 </file>
@@ -1109,22 +1112,22 @@
                   <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>626</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>626</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>626</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>626</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>626</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>626</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,7 +3057,7 @@
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
@@ -3062,7 +3065,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -3089,7 +3092,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -3116,7 +3119,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H26" t="s">
         <v>94</v>
@@ -3143,7 +3146,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3170,7 +3173,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H28" t="s">
         <v>109</v>
@@ -3197,7 +3200,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3228,7 +3231,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3237,7 +3240,7 @@
       </c>
       <c r="B32">
         <f>E31-F24</f>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3270,7 +3273,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,14 +4126,17 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <f>9+7</f>
-        <v>16</v>
+        <f>9+8+4</f>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>153</v>
       </c>
       <c r="E23" t="s">
         <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>155</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5C1AE-5DE2-4405-8DE2-EE5F103F62AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5AC3BA-3BA7-4500-BE78-6120A4531F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Rewriting STORM to fit CPMpy</t>
   </si>
   <si>
-    <t>writing + asking permission</t>
-  </si>
-  <si>
     <t>recreating seeds, finding out how to evaluate subformulas thanks to Mr Bleukx</t>
   </si>
   <si>
@@ -525,6 +522,15 @@
   </si>
   <si>
     <t>more proofreading, advertizing, finding people to proofread text</t>
+  </si>
+  <si>
+    <t>Processing first feedbacks, creating possible titles</t>
+  </si>
+  <si>
+    <t>finishing the thext</t>
+  </si>
+  <si>
+    <t>Proofreading + asking permission</t>
   </si>
 </sst>
 </file>
@@ -1112,22 +1118,22 @@
                   <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>631</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>631</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>631</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>631</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>631</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>631</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,7 +2912,7 @@
         <v>411</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2933,7 +2939,7 @@
         <v>450</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2960,7 +2966,7 @@
         <v>489</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2987,7 +2993,7 @@
         <v>532</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,7 +3020,7 @@
         <v>557</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3041,7 +3047,7 @@
         <v>610</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3057,7 +3063,7 @@
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
@@ -3065,10 +3071,10 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3092,10 +3098,10 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3119,10 +3125,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3146,7 +3152,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3173,10 +3179,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3200,7 +3206,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3218,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3231,7 +3237,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3240,7 +3246,7 @@
       </c>
       <c r="B32">
         <f>E31-F24</f>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3272,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3812,10 +3818,10 @@
         <v>93</v>
       </c>
       <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
         <v>95</v>
-      </c>
-      <c r="H14" t="s">
-        <v>96</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -3834,13 +3840,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$32, "hospital visit", "")</f>
@@ -3879,19 +3885,19 @@
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
         <v>101</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>102</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>103</v>
       </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -3910,22 +3916,22 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
         <v>110</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>111</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>112</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>113</v>
-      </c>
-      <c r="I17" t="s">
-        <v>114</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -3944,23 +3950,23 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.CONCAT(IF(E32, "feestdag, ", ""), "brainstorm about metamorphic relations, implementing some")</f>
         <v>feestdag, brainstorm about metamorphic relations, implementing some</v>
       </c>
       <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
         <v>116</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>117</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>118</v>
-      </c>
-      <c r="I18" t="s">
-        <v>119</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>
@@ -3979,25 +3985,25 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
         <v>124</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>125</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>127</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>128</v>
-      </c>
-      <c r="J19" t="s">
-        <v>129</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -4016,25 +4022,25 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
         <v>130</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>131</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>132</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>133</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>134</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>135</v>
-      </c>
-      <c r="J20" t="s">
-        <v>136</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -4053,13 +4059,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" t="s">
         <v>137</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>138</v>
-      </c>
-      <c r="F21" t="s">
-        <v>139</v>
       </c>
       <c r="G21" t="str">
         <f>IF($E$32, "catch up ing. proclamation", "")</f>
@@ -4074,7 +4080,7 @@
         <v>sick</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s">
         <v>26</v>
@@ -4093,25 +4099,25 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
         <v>144</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>145</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>146</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>147</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>148</v>
       </c>
-      <c r="I22" t="s">
-        <v>149</v>
-      </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -4126,16 +4132,19 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <f>9+8+4</f>
-        <v>21</v>
+        <f>9+8+4+6</f>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
         <v>153</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>154</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>155</v>
       </c>
       <c r="K23" t="s">
@@ -4155,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
@@ -4174,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4225,19 +4234,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4256,25 +4265,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5AC3BA-3BA7-4500-BE78-6120A4531F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1350887-77F4-4B09-A08A-A1E032346FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -524,13 +524,13 @@
     <t>more proofreading, advertizing, finding people to proofread text</t>
   </si>
   <si>
-    <t>Processing first feedbacks, creating possible titles</t>
-  </si>
-  <si>
     <t>finishing the thext</t>
   </si>
   <si>
     <t>Proofreading + asking permission</t>
+  </si>
+  <si>
+    <t>Processing first feedbacks, creating possible titles, reading how the poster should be made, adding rough outline of poster, fixing last todo's</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1118,22 +1118,22 @@
                   <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>637</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>637</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>637</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>637</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>637</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>637</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,7 +1328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1327462816"/>
@@ -1411,7 +1411,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1443,7 +1443,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1327462400"/>
@@ -1495,7 +1495,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1532,7 +1532,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2439,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
@@ -3071,10 +3071,10 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -3125,10 +3125,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,17 +3246,13 @@
       </c>
       <c r="B32">
         <f>E31-F24</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="G34">
-        <f>SUM(E3:E13)</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -3278,8 +3274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,8 +4129,8 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <f>9+8+4+6</f>
-        <v>27</v>
+        <f>9+8+4+7</f>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>152</v>
@@ -4145,7 +4142,7 @@
         <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1350887-77F4-4B09-A08A-A1E032346FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A716325C-88F8-4709-8E8B-DB05EDE74266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>Processing first feedbacks, creating possible titles, reading how the poster should be made, adding rough outline of poster, fixing last todo's</t>
+  </si>
+  <si>
+    <t>rereading assignments, updating found bugs</t>
   </si>
 </sst>
 </file>
@@ -1118,22 +1121,22 @@
                   <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>638</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>638</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>638</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>638</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>638</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>638</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +2443,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,7 +3066,7 @@
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
@@ -3071,7 +3074,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H24" t="s">
         <v>155</v>
@@ -3098,7 +3101,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -3125,7 +3128,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -3206,7 +3209,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3237,7 +3240,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,7 +3249,7 @@
       </c>
       <c r="B32">
         <f>E31-F24</f>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3279,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4129,8 +4132,8 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <f>9+8+4+7</f>
-        <v>28</v>
+        <f>9+8+4+7+3</f>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>152</v>
@@ -4143,6 +4146,9 @@
       </c>
       <c r="G23" t="s">
         <v>157</v>
+      </c>
+      <c r="H23" t="s">
+        <v>158</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A716325C-88F8-4709-8E8B-DB05EDE74266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD318933-3EAA-4083-AB69-DB8DC5DE93C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="160">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>rereading assignments, updating found bugs</t>
+  </si>
+  <si>
+    <t>processing amazing feedback from Ignace Bleukx</t>
   </si>
 </sst>
 </file>
@@ -1121,22 +1124,22 @@
                   <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>641</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>641</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>641</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>641</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>641</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>641</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,7 +3069,7 @@
       </c>
       <c r="E24">
         <f>Sheet2!C23</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F24">
         <f>SUM($D$3:D24)</f>
@@ -3074,7 +3077,7 @@
       </c>
       <c r="G24">
         <f>SUM($E$3:E24)</f>
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H24" t="s">
         <v>155</v>
@@ -3101,7 +3104,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -3128,7 +3131,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -3155,7 +3158,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3182,7 +3185,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -3209,7 +3212,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3240,7 +3243,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3249,7 +3252,7 @@
       </c>
       <c r="B32">
         <f>E31-F24</f>
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3279,7 +3282,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,8 +4135,8 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <f>9+8+4+7+3</f>
-        <v>31</v>
+        <f>9+8+4+7+3+0+4</f>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>152</v>
@@ -4149,6 +4152,9 @@
       </c>
       <c r="H23" t="s">
         <v>158</v>
+      </c>
+      <c r="J23" t="s">
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD318933-3EAA-4083-AB69-DB8DC5DE93C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FE18FD-36CB-400F-86A1-1500B18048E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="161">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>processing amazing feedback from Ignace Bleukx</t>
+  </si>
+  <si>
+    <t>prepping thesis meeting, processing thesis meeting, pulling the feedback of yesterday through to the other chapters</t>
   </si>
 </sst>
 </file>
@@ -1127,19 +1130,19 @@
                   <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>645</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>645</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>645</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>645</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>645</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,7 +3099,7 @@
       </c>
       <c r="E25">
         <f>Sheet2!C24</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
@@ -3104,7 +3107,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -3131,7 +3134,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -3158,7 +3161,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3185,7 +3188,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -3212,7 +3215,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3243,7 +3246,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3251,8 +3254,8 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <f>E31-F24</f>
-        <v>68</v>
+        <f>E31-F25</f>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3280,9 +3283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,8 +4172,11 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <f>0</f>
-        <v>0</v>
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
       </c>
       <c r="G24" t="s">
         <v>96</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FE18FD-36CB-400F-86A1-1500B18048E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6CB04-8DC6-4744-8707-96A67F512DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="163">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -540,6 +540,12 @@
   </si>
   <si>
     <t>prepping thesis meeting, processing thesis meeting, pulling the feedback of yesterday through to the other chapters</t>
+  </si>
+  <si>
+    <t>creating template presentation M3</t>
+  </si>
+  <si>
+    <t>asking textual permission to Tias Guns, prepping presentation M3</t>
   </si>
 </sst>
 </file>
@@ -1130,19 +1136,19 @@
                   <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>657</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>657</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>657</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>657</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>657</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3099,7 +3105,7 @@
       </c>
       <c r="E25">
         <f>Sheet2!C24</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
@@ -3107,7 +3113,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -3134,7 +3140,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -3161,7 +3167,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3188,7 +3194,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -3215,7 +3221,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3246,7 +3252,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3255,7 +3261,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3283,9 +3289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,11 +4178,17 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <f>12</f>
-        <v>12</v>
+        <f>12+1+3</f>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
       </c>
       <c r="G24" t="s">
         <v>96</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6CB04-8DC6-4744-8707-96A67F512DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B786DBD-CD0F-44FE-9820-A8289AF2CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="164">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>asking textual permission to Tias Guns, prepping presentation M3</t>
+  </si>
+  <si>
+    <t>slowly chippping at the ppt</t>
   </si>
 </sst>
 </file>
@@ -1136,19 +1139,19 @@
                   <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>661</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>661</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>661</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>661</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>661</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="E25">
         <f>Sheet2!C24</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
@@ -3113,7 +3116,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -3140,7 +3143,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -3167,7 +3170,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3194,7 +3197,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -3221,7 +3224,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3252,7 +3255,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3261,7 +3264,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3294,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,8 +4181,8 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <f>12+1+3</f>
-        <v>16</v>
+        <f>12+1+3+2</f>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>160</v>
@@ -4191,7 +4194,7 @@
         <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B786DBD-CD0F-44FE-9820-A8289AF2CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C018C-17B2-4FC3-8E11-19E441FE651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="165">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>slowly chippping at the ppt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding txt to ppt </t>
   </si>
 </sst>
 </file>
@@ -1139,19 +1142,19 @@
                   <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>663</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>663</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>663</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>663</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>663</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,7 +3111,7 @@
       </c>
       <c r="E25">
         <f>Sheet2!C24</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
@@ -3116,7 +3119,7 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -3143,7 +3146,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -3170,7 +3173,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3197,7 +3200,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -3224,7 +3227,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3255,7 +3258,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,7 +3267,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3294,7 +3297,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,8 +4184,8 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <f>12+1+3+2</f>
-        <v>18</v>
+        <f>12+1+3+2+0+1</f>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>160</v>
@@ -4195,6 +4198,9 @@
       </c>
       <c r="G24" t="s">
         <v>163</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C018C-17B2-4FC3-8E11-19E441FE651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADEE04-4896-4ED3-9F75-8922FFF894C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Finding the DTAI Toledo community, planning, watching Milestone M1</t>
   </si>
   <si>
-    <t xml:space="preserve">ASK PERMISSION </t>
-  </si>
-  <si>
     <t>thesis meeting, finishing off STORM convertion, starting debugging new storm</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>Writing and proofreading</t>
   </si>
   <si>
-    <t>weird DEADLINE academisch secretaris</t>
-  </si>
-  <si>
     <t>replacing badly cropt image on front page, rereading guidelines_thesis.pdf, moving caption of tables, add listings to some bug explanations</t>
   </si>
   <si>
@@ -552,6 +546,18 @@
   </si>
   <si>
     <t xml:space="preserve">adding txt to ppt </t>
+  </si>
+  <si>
+    <t>reading gotten feedback, changing ' and "</t>
+  </si>
+  <si>
+    <t>weird DEADLINE notify academisch secretaris</t>
+  </si>
+  <si>
+    <t>start processing feedback further at \subsubsection{MiniZinc Challenge}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepping thesis meeting, thesis meeting, processing feedback on ppt, processing feedback of VanDewale on the txt </t>
   </si>
 </sst>
 </file>
@@ -1142,19 +1148,19 @@
                   <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>664</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>664</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>664</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>664</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>664</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,7 +2939,7 @@
         <v>411</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2960,7 +2966,7 @@
         <v>450</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2987,7 +2993,7 @@
         <v>489</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,7 +3020,7 @@
         <v>532</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3041,7 +3047,7 @@
         <v>557</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3068,7 +3074,7 @@
         <v>610</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3095,7 +3101,7 @@
         <v>645</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3111,7 +3117,7 @@
       </c>
       <c r="E25">
         <f>Sheet2!C24</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25">
         <f>SUM($D$3:D25)</f>
@@ -3119,10 +3125,10 @@
       </c>
       <c r="G25">
         <f>SUM($E$3:E25)</f>
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3138,7 +3144,7 @@
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
@@ -3146,10 +3152,10 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3173,7 +3179,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3200,10 +3206,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3227,7 +3233,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3245,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3258,7 +3264,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3267,7 +3273,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3303,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3317,7 @@
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" customWidth="1"/>
+    <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3858,13 +3864,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
         <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>98</v>
       </c>
       <c r="G15" t="str">
         <f>IF($E$32, "hospital visit", "")</f>
@@ -3903,19 +3909,19 @@
         <v>Revalidatie, solving ~ Global function bug, writing a around chapter 5 Research Questions</v>
       </c>
       <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
         <v>100</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>102</v>
       </c>
-      <c r="H16" t="s">
-        <v>103</v>
-      </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -3934,22 +3940,22 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
         <v>109</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>110</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>111</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>112</v>
-      </c>
-      <c r="I17" t="s">
-        <v>113</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -3968,23 +3974,23 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.CONCAT(IF(E32, "feestdag, ", ""), "brainstorm about metamorphic relations, implementing some")</f>
         <v>feestdag, brainstorm about metamorphic relations, implementing some</v>
       </c>
       <c r="F18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
         <v>115</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>116</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>117</v>
-      </c>
-      <c r="I18" t="s">
-        <v>118</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>
@@ -4003,25 +4009,25 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
         <v>123</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>124</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>125</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>126</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>127</v>
-      </c>
-      <c r="J19" t="s">
-        <v>128</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -4040,25 +4046,25 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
         <v>129</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>130</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>131</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>132</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>133</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>134</v>
-      </c>
-      <c r="J20" t="s">
-        <v>135</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -4077,13 +4083,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
         <v>136</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>137</v>
-      </c>
-      <c r="F21" t="s">
-        <v>138</v>
       </c>
       <c r="G21" t="str">
         <f>IF($E$32, "catch up ing. proclamation", "")</f>
@@ -4098,7 +4104,7 @@
         <v>sick</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K21" t="s">
         <v>26</v>
@@ -4117,25 +4123,25 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
         <v>143</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>144</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>145</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>146</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>147</v>
       </c>
-      <c r="I22" t="s">
-        <v>148</v>
-      </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -4154,22 +4160,22 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
         <v>152</v>
       </c>
-      <c r="E23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" t="s">
-        <v>154</v>
-      </c>
       <c r="G23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
         <v>157</v>
-      </c>
-      <c r="H23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" t="s">
-        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>
@@ -4184,23 +4190,26 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <f>12+1+3+2+0+1</f>
-        <v>19</v>
+        <f>12+1+3+2+0+1+1</f>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
         <v>160</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>161</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>162</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>163</v>
-      </c>
-      <c r="I24" t="s">
-        <v>164</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
@@ -4215,11 +4224,14 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <f>0</f>
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>165</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4270,19 +4282,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4301,25 +4313,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADEE04-4896-4ED3-9F75-8922FFF894C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4784B-16EE-44BC-9E6F-D6ABBB14C738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -554,10 +554,10 @@
     <t>weird DEADLINE notify academisch secretaris</t>
   </si>
   <si>
-    <t>start processing feedback further at \subsubsection{MiniZinc Challenge}</t>
-  </si>
-  <si>
     <t xml:space="preserve">prepping thesis meeting, thesis meeting, processing feedback on ppt, processing feedback of VanDewale on the txt </t>
+  </si>
+  <si>
+    <t>start processing feedback further, lots of removing of subsentences, writing txt for ppt</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3303,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,10 +4228,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
         <v>166</v>
-      </c>
-      <c r="E25" t="s">
-        <v>165</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4784B-16EE-44BC-9E6F-D6ABBB14C738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19C0DE-DDA0-456E-B9E7-C9D06EC60D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>start processing feedback further, lots of removing of subsentences, writing txt for ppt</t>
+  </si>
+  <si>
+    <t>prepping + practicing presentation</t>
   </si>
 </sst>
 </file>
@@ -1151,16 +1154,16 @@
                   <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>674</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>674</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>674</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>674</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,7 +3147,7 @@
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3206,7 +3209,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="H28" t="s">
         <v>107</v>
@@ -3233,7 +3236,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3264,7 +3267,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3273,7 +3276,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3306,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,14 +4227,17 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <f>9</f>
-        <v>9</v>
+        <f>9+6+4</f>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>165</v>
       </c>
       <c r="E25" t="s">
         <v>166</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19C0DE-DDA0-456E-B9E7-C9D06EC60D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7C4ED-D620-4296-9FB5-CC0D3234C79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="170">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>prepping + practicing presentation</t>
+  </si>
+  <si>
+    <t>ergens deze week krijg ik de planning van de verdediging</t>
+  </si>
+  <si>
+    <t>practacing + presenting M3, processing feedback in M3</t>
   </si>
 </sst>
 </file>
@@ -1154,16 +1160,16 @@
                   <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>684</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>684</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>684</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>684</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,7 +3153,7 @@
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
@@ -3155,7 +3161,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
@@ -3182,7 +3188,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3209,7 +3215,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="H28" t="s">
         <v>107</v>
@@ -3236,7 +3242,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3267,7 +3273,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3276,7 +3282,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3306,7 +3312,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,8 +4233,8 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <f>9+6+4</f>
-        <v>19</v>
+        <f>9+6+4+7</f>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>165</v>
@@ -4238,6 +4244,9 @@
       </c>
       <c r="F25" t="s">
         <v>167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>169</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4345,6 +4354,9 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
       <c r="K30" t="s">
         <v>26</v>
       </c>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7C4ED-D620-4296-9FB5-CC0D3234C79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AEB7A4-6C73-4A4F-84A2-A0DB84A2BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="171">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>practacing + presenting M3, processing feedback in M3</t>
+  </si>
+  <si>
+    <t>more proofreading, Fixing cyclic expressions bug in meta tester</t>
   </si>
 </sst>
 </file>
@@ -1160,16 +1163,16 @@
                   <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>691</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>691</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>691</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>691</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,7 +3156,7 @@
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
@@ -3161,7 +3164,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
@@ -3188,7 +3191,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3215,7 +3218,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="H28" t="s">
         <v>107</v>
@@ -3242,7 +3245,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3273,7 +3276,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3282,7 +3285,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,8 +4236,8 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <f>9+6+4+7</f>
-        <v>26</v>
+        <f>9+6+4+7+4</f>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>165</v>
@@ -4247,6 +4250,9 @@
       </c>
       <c r="G25" t="s">
         <v>169</v>
+      </c>
+      <c r="H25" t="s">
+        <v>170</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AEB7A4-6C73-4A4F-84A2-A0DB84A2BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2572ACA-F1B9-4318-9604-C8345FC98FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -569,7 +569,7 @@
     <t>practacing + presenting M3, processing feedback in M3</t>
   </si>
   <si>
-    <t>more proofreading, Fixing cyclic expressions bug in meta tester</t>
+    <t>more proofreading, Fixing cyclic expressions bug in meta tester, change to better complient and non-cropted faculty logo</t>
   </si>
 </sst>
 </file>
@@ -3315,7 +3315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2572ACA-F1B9-4318-9604-C8345FC98FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA5F41-329A-4BFE-9584-11BCD482F52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -569,7 +569,7 @@
     <t>practacing + presenting M3, processing feedback in M3</t>
   </si>
   <si>
-    <t>more proofreading, Fixing cyclic expressions bug in meta tester, change to better complient and non-cropted faculty logo</t>
+    <t>more proofreading, Fixing cyclic expressions bug in meta tester, change to better complient and non-cropted faculty logo, more textual improvements in chapter 4 this time</t>
   </si>
 </sst>
 </file>
@@ -1163,16 +1163,16 @@
                   <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>695</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>695</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>695</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H28" t="s">
         <v>107</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -4236,8 +4236,8 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <f>9+6+4+7+4</f>
-        <v>30</v>
+        <f>9+6+4+7+6</f>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>165</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA5F41-329A-4BFE-9584-11BCD482F52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A9EE1-AE82-4079-A9DF-704997EEAA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="172">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>more proofreading, Fixing cyclic expressions bug in meta tester, change to better complient and non-cropted faculty logo, more textual improvements in chapter 4 this time</t>
+  </si>
+  <si>
+    <t>more textual changes for chapter 4 and 5</t>
   </si>
 </sst>
 </file>
@@ -1163,16 +1166,16 @@
                   <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>697</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>697</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>697</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>697</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3156,7 +3159,7 @@
       </c>
       <c r="E26">
         <f>Sheet2!C25</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F26">
         <f>SUM($D$3:D26)</f>
@@ -3164,7 +3167,7 @@
       </c>
       <c r="G26">
         <f>SUM($E$3:E26)</f>
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
@@ -3191,7 +3194,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3218,7 +3221,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H28" t="s">
         <v>107</v>
@@ -3245,7 +3248,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3276,7 +3279,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3285,7 +3288,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3313,9 +3316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,8 +4239,8 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <f>9+6+4+7+6</f>
-        <v>32</v>
+        <f>9+6+4+7+6+0+4</f>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>165</v>
@@ -4253,6 +4256,9 @@
       </c>
       <c r="H25" t="s">
         <v>170</v>
+      </c>
+      <c r="J25" t="s">
+        <v>171</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A9EE1-AE82-4079-A9DF-704997EEAA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D86601-7046-466A-9E46-C8FFD145A125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="174">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>more textual changes for chapter 4 and 5</t>
+  </si>
+  <si>
+    <t>looking at v0.9.11</t>
+  </si>
+  <si>
+    <t>processing new feedback</t>
   </si>
 </sst>
 </file>
@@ -1169,13 +1175,13 @@
                   <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>701</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>701</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>701</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,7 +2487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3186,7 +3192,7 @@
       </c>
       <c r="E27">
         <f>Sheet2!C26</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <f>SUM($D$3:D27)</f>
@@ -3194,7 +3200,7 @@
       </c>
       <c r="G27">
         <f>SUM($E$3:E27)</f>
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -3213,7 +3219,7 @@
       </c>
       <c r="E28">
         <f>Sheet2!C27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
@@ -3221,7 +3227,7 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="H28" t="s">
         <v>107</v>
@@ -3248,7 +3254,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3279,7 +3285,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3288,7 +3294,7 @@
       </c>
       <c r="B32">
         <f>E31-F25</f>
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3316,9 +3322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,8 +4279,11 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <f>0</f>
-        <v>0</v>
+        <f>0+0+0+0+0+2+0</f>
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -4289,8 +4298,11 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f>0</f>
-        <v>0</v>
+        <f>0+4</f>
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>173</v>
       </c>
       <c r="K27" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D86601-7046-466A-9E46-C8FFD145A125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AFEF85-CB9A-4513-BF7B-14577FB9B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="173">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -482,9 +482,6 @@
     <t>academisch secretaris luc.vaneycken@kuleuven.be</t>
   </si>
   <si>
-    <t>Poster</t>
-  </si>
-  <si>
     <t>finishing writing implmentation, writing about the results (running the fuzzer tests, preventing frequent reoccuring bugs, describing double not bug), helping with bug 165</t>
   </si>
   <si>
@@ -521,9 +518,6 @@
     <t>finishing the thext</t>
   </si>
   <si>
-    <t>Proofreading + asking permission</t>
-  </si>
-  <si>
     <t>Processing first feedbacks, creating possible titles, reading how the poster should be made, adding rough outline of poster, fixing last todo's</t>
   </si>
   <si>
@@ -579,6 +573,9 @@
   </si>
   <si>
     <t>processing new feedback</t>
+  </si>
+  <si>
+    <t>Proofreading, poster</t>
   </si>
 </sst>
 </file>
@@ -1310,9 +1307,6 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="25">
@@ -2487,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3095,7 +3089,7 @@
         <v>610</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,7 +3116,7 @@
         <v>645</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3176,7 +3170,7 @@
         <v>701</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3202,9 +3196,6 @@
         <f>SUM($E$3:E27)</f>
         <v>703</v>
       </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
@@ -3230,7 +3221,7 @@
         <v>707</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3271,9 +3262,6 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3293,8 +3281,8 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <f>E31-F25</f>
-        <v>95</v>
+        <f>E31-F28</f>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3322,7 +3310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
@@ -4144,25 +4132,25 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
         <v>142</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>143</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>144</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>145</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>146</v>
       </c>
-      <c r="I22" t="s">
-        <v>147</v>
-      </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -4181,22 +4169,22 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" t="s">
         <v>150</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>151</v>
       </c>
-      <c r="F23" t="s">
-        <v>152</v>
-      </c>
       <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
         <v>155</v>
-      </c>
-      <c r="H23" t="s">
-        <v>156</v>
-      </c>
-      <c r="J23" t="s">
-        <v>157</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>
@@ -4215,22 +4203,22 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
         <v>158</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>159</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>160</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>161</v>
-      </c>
-      <c r="I24" t="s">
-        <v>162</v>
-      </c>
-      <c r="J24" t="s">
-        <v>163</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
@@ -4249,22 +4237,22 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
         <v>165</v>
       </c>
-      <c r="E25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>167</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s">
         <v>169</v>
-      </c>
-      <c r="H25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" t="s">
-        <v>171</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4283,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -4302,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s">
         <v>26</v>
@@ -4333,7 +4321,7 @@
         <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4379,7 +4367,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AFEF85-CB9A-4513-BF7B-14577FB9B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317514CC-3EFA-4E03-A476-A923249AD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -479,9 +479,6 @@
     <t>SUBMISSION DAY 2PM</t>
   </si>
   <si>
-    <t>academisch secretaris luc.vaneycken@kuleuven.be</t>
-  </si>
-  <si>
     <t>finishing writing implmentation, writing about the results (running the fuzzer tests, preventing frequent reoccuring bugs, describing double not bug), helping with bug 165</t>
   </si>
   <si>
@@ -576,6 +573,12 @@
   </si>
   <si>
     <t>Proofreading, poster</t>
+  </si>
+  <si>
+    <t>removing small poster typo's</t>
+  </si>
+  <si>
+    <t>creating poster</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1178,10 @@
                   <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>707</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>707</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3089,7 +3092,7 @@
         <v>610</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3116,7 +3119,7 @@
         <v>645</v>
       </c>
       <c r="H24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3210,7 +3213,7 @@
       </c>
       <c r="E28">
         <f>Sheet2!C27</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <f>SUM($D$3:D28)</f>
@@ -3218,10 +3221,10 @@
       </c>
       <c r="G28">
         <f>SUM($E$3:E28)</f>
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3245,7 +3248,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3273,7 +3276,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3282,7 +3285,7 @@
       </c>
       <c r="B32">
         <f>E31-F28</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3310,9 +3313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,25 +4135,25 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>142</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>143</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>144</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>145</v>
       </c>
-      <c r="I22" t="s">
-        <v>146</v>
-      </c>
       <c r="J22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -4169,22 +4172,22 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" t="s">
         <v>149</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>150</v>
       </c>
-      <c r="F23" t="s">
-        <v>151</v>
-      </c>
       <c r="G23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" t="s">
         <v>153</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>154</v>
-      </c>
-      <c r="J23" t="s">
-        <v>155</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>
@@ -4203,22 +4206,22 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
         <v>156</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>157</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>158</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>159</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>160</v>
-      </c>
-      <c r="J24" t="s">
-        <v>161</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
@@ -4237,22 +4240,22 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
         <v>163</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>164</v>
       </c>
-      <c r="F25" t="s">
-        <v>165</v>
-      </c>
       <c r="G25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
         <v>167</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>168</v>
-      </c>
-      <c r="J25" t="s">
-        <v>169</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4271,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -4286,11 +4289,17 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f>0+4</f>
-        <v>4</v>
+        <f>0+4+0+0+3+0+2</f>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
       </c>
       <c r="K27" t="s">
         <v>26</v>
@@ -4308,9 +4317,6 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
       <c r="G28" t="s">
         <v>139</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -4367,7 +4373,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s">
         <v>26</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317514CC-3EFA-4E03-A476-A923249AD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A7CBA-1346-4DCF-A2C7-6CD451941D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="175">
   <si>
     <t>DONE Cum</t>
   </si>
@@ -566,9 +566,6 @@
     <t>more textual changes for chapter 4 and 5</t>
   </si>
   <si>
-    <t>looking at v0.9.11</t>
-  </si>
-  <si>
     <t>processing new feedback</t>
   </si>
   <si>
@@ -579,6 +576,12 @@
   </si>
   <si>
     <t>creating poster</t>
+  </si>
+  <si>
+    <t>testing/looking at v0.9.11</t>
+  </si>
+  <si>
+    <t>small admin work, processing poster feedback</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
                   <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>712</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,7 +3227,7 @@
         <v>712</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3240,7 +3243,7 @@
       </c>
       <c r="E29">
         <f>Sheet2!C28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
@@ -3248,7 +3251,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3276,7 +3279,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3285,7 +3288,7 @@
       </c>
       <c r="B32">
         <f>E31-F28</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3315,7 +3318,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -4293,13 +4296,13 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s">
         <v>26</v>
@@ -4314,8 +4317,11 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <f>0</f>
-        <v>0</v>
+        <f>0+2</f>
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>174</v>
       </c>
       <c r="G28" t="s">
         <v>139</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A7CBA-1346-4DCF-A2C7-6CD451941D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436AAD15-C483-436E-A0CA-5B9A5B472569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8770C7F-A2D2-4D88-ABBC-8B425DE253D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,9 +554,6 @@
     <t>prepping + practicing presentation</t>
   </si>
   <si>
-    <t>ergens deze week krijg ik de planning van de verdediging</t>
-  </si>
-  <si>
     <t>practacing + presenting M3, processing feedback in M3</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>small admin work, processing poster feedback</t>
+  </si>
+  <si>
+    <t>submitting</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1184,7 @@
                   <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>714</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,7 +2477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2487,7 +2487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BD006B-C7A9-475A-9D03-BF9D18D9CC2C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3227,7 +3227,7 @@
         <v>712</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="E29">
         <f>Sheet2!C28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <f>SUM($D$3:D29)</f>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="G29">
         <f>SUM($E$3:E29)</f>
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H29" t="s">
         <v>88</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="E31">
         <f>SUM($E$3:E30)</f>
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B32">
         <f>E31-F28</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3316,9 +3316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4242F093-96E3-46E1-A347-B0CA60EA4F88}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,13 +4252,13 @@
         <v>164</v>
       </c>
       <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" t="s">
         <v>166</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>167</v>
-      </c>
-      <c r="J25" t="s">
-        <v>168</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
@@ -4277,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -4296,13 +4296,13 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s">
         <v>26</v>
@@ -4317,10 +4317,13 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <f>0+2</f>
-        <v>2</v>
+        <f>0+2+1+0+0+0+0</f>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" t="s">
         <v>174</v>
       </c>
       <c r="G28" t="s">
@@ -4378,9 +4381,6 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="D30" t="s">
-        <v>165</v>
-      </c>
       <c r="K30" t="s">
         <v>26</v>
       </c>
